--- a/Reference/ROM_UE14500.xlsx
+++ b/Reference/ROM_UE14500.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\MC14500B\Homebrew\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\UETTL Github\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF89F69-A093-44BC-938A-086E771D4FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254F0E7A-7A2F-4FC9-8577-F7A8AFD4F831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CDB98B12-2C2A-4CB7-B0F3-E6633EC4814E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="147">
   <si>
     <t>D</t>
     <phoneticPr fontId="1"/>
@@ -558,10 +558,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IOC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Outputs (Data)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,10 +622,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IOC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JMP</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -688,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +707,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1245,10 +1240,10 @@
       <c r="AN3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AP3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AQ3" s="10"/>
+      <c r="AQ3" s="11"/>
     </row>
     <row r="4" spans="2:43">
       <c r="B4" s="1" t="s">
@@ -7941,9 +7936,9 @@
   <dimension ref="C2:Y1074"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Q536" sqref="Q536"/>
+      <selection pane="bottomLeft" activeCell="Y530" sqref="Y4:Y530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7959,29 +7954,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:25">
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="P2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
     </row>
     <row r="3" spans="3:25">
       <c r="D3" s="6" t="s">
@@ -8012,7 +8007,7 @@
         <v>127</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>1</v>
@@ -8027,7 +8022,7 @@
         <v>128</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>11</v>
@@ -8039,12 +8034,12 @@
         <v>129</v>
       </c>
       <c r="Y3" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25">
+      <c r="C4" s="11" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="3:25">
-      <c r="C4" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -8107,7 +8102,7 @@
       </c>
     </row>
     <row r="5" spans="3:25">
-      <c r="C5" s="10"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5">
         <v>0</v>
       </c>
@@ -8169,7 +8164,7 @@
       </c>
     </row>
     <row r="6" spans="3:25">
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5">
         <v>0</v>
       </c>
@@ -8231,7 +8226,7 @@
       </c>
     </row>
     <row r="7" spans="3:25">
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5">
         <v>0</v>
       </c>
@@ -8293,7 +8288,7 @@
       </c>
     </row>
     <row r="8" spans="3:25">
-      <c r="C8" s="10"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5">
         <v>0</v>
       </c>
@@ -8355,7 +8350,7 @@
       </c>
     </row>
     <row r="9" spans="3:25">
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5">
         <v>0</v>
       </c>
@@ -8417,7 +8412,7 @@
       </c>
     </row>
     <row r="10" spans="3:25">
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5">
         <v>0</v>
       </c>
@@ -8479,7 +8474,7 @@
       </c>
     </row>
     <row r="11" spans="3:25">
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5">
         <v>0</v>
       </c>
@@ -8541,7 +8536,7 @@
       </c>
     </row>
     <row r="12" spans="3:25">
-      <c r="C12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5">
         <v>0</v>
       </c>
@@ -8603,7 +8598,7 @@
       </c>
     </row>
     <row r="13" spans="3:25">
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="5">
         <v>0</v>
       </c>
@@ -8665,7 +8660,7 @@
       </c>
     </row>
     <row r="14" spans="3:25">
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5">
         <v>0</v>
       </c>
@@ -8727,7 +8722,7 @@
       </c>
     </row>
     <row r="15" spans="3:25">
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5">
         <v>0</v>
       </c>
@@ -8789,7 +8784,7 @@
       </c>
     </row>
     <row r="16" spans="3:25">
-      <c r="C16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="5">
         <v>0</v>
       </c>
@@ -8851,7 +8846,7 @@
       </c>
     </row>
     <row r="17" spans="3:25">
-      <c r="C17" s="10"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="5">
         <v>0</v>
       </c>
@@ -8913,7 +8908,7 @@
       </c>
     </row>
     <row r="18" spans="3:25">
-      <c r="C18" s="10"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="5">
         <v>0</v>
       </c>
@@ -8975,7 +8970,7 @@
       </c>
     </row>
     <row r="19" spans="3:25">
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="5">
         <v>0</v>
       </c>
@@ -9037,7 +9032,7 @@
       </c>
     </row>
     <row r="20" spans="3:25">
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="5">
         <v>0</v>
       </c>
@@ -9099,7 +9094,7 @@
       </c>
     </row>
     <row r="21" spans="3:25">
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="5">
         <v>0</v>
       </c>
@@ -9161,7 +9156,7 @@
       </c>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="5">
         <v>0</v>
       </c>
@@ -9223,7 +9218,7 @@
       </c>
     </row>
     <row r="23" spans="3:25">
-      <c r="C23" s="10"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="5">
         <v>0</v>
       </c>
@@ -9285,7 +9280,7 @@
       </c>
     </row>
     <row r="24" spans="3:25">
-      <c r="C24" s="10"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="5">
         <v>0</v>
       </c>
@@ -9347,7 +9342,7 @@
       </c>
     </row>
     <row r="25" spans="3:25">
-      <c r="C25" s="10"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="5">
         <v>0</v>
       </c>
@@ -9409,7 +9404,7 @@
       </c>
     </row>
     <row r="26" spans="3:25">
-      <c r="C26" s="10"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="5">
         <v>0</v>
       </c>
@@ -9471,7 +9466,7 @@
       </c>
     </row>
     <row r="27" spans="3:25">
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="5">
         <v>0</v>
       </c>
@@ -9533,7 +9528,7 @@
       </c>
     </row>
     <row r="28" spans="3:25">
-      <c r="C28" s="10"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="5">
         <v>0</v>
       </c>
@@ -9595,7 +9590,7 @@
       </c>
     </row>
     <row r="29" spans="3:25">
-      <c r="C29" s="10"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="5">
         <v>0</v>
       </c>
@@ -9657,7 +9652,7 @@
       </c>
     </row>
     <row r="30" spans="3:25">
-      <c r="C30" s="10"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="5">
         <v>0</v>
       </c>
@@ -9719,7 +9714,7 @@
       </c>
     </row>
     <row r="31" spans="3:25">
-      <c r="C31" s="10"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="5">
         <v>0</v>
       </c>
@@ -9781,7 +9776,7 @@
       </c>
     </row>
     <row r="32" spans="3:25">
-      <c r="C32" s="10"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="5">
         <v>0</v>
       </c>
@@ -9843,7 +9838,7 @@
       </c>
     </row>
     <row r="33" spans="3:25">
-      <c r="C33" s="10"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="5">
         <v>0</v>
       </c>
@@ -9905,7 +9900,7 @@
       </c>
     </row>
     <row r="34" spans="3:25">
-      <c r="C34" s="10"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="5">
         <v>0</v>
       </c>
@@ -9967,7 +9962,7 @@
       </c>
     </row>
     <row r="35" spans="3:25">
-      <c r="C35" s="10"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="5">
         <v>0</v>
       </c>
@@ -10052,8 +10047,8 @@
       <c r="Y36" s="6"/>
     </row>
     <row r="37" spans="3:25">
-      <c r="C37" s="10" t="s">
-        <v>134</v>
+      <c r="C37" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
@@ -10116,7 +10111,7 @@
       </c>
     </row>
     <row r="38" spans="3:25">
-      <c r="C38" s="10"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="5">
         <v>0</v>
       </c>
@@ -10178,7 +10173,7 @@
       </c>
     </row>
     <row r="39" spans="3:25">
-      <c r="C39" s="10"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="5">
         <v>0</v>
       </c>
@@ -10240,7 +10235,7 @@
       </c>
     </row>
     <row r="40" spans="3:25">
-      <c r="C40" s="10"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="5">
         <v>0</v>
       </c>
@@ -10302,7 +10297,7 @@
       </c>
     </row>
     <row r="41" spans="3:25">
-      <c r="C41" s="10"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="5">
         <v>0</v>
       </c>
@@ -10364,7 +10359,7 @@
       </c>
     </row>
     <row r="42" spans="3:25">
-      <c r="C42" s="10"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="5">
         <v>0</v>
       </c>
@@ -10426,7 +10421,7 @@
       </c>
     </row>
     <row r="43" spans="3:25">
-      <c r="C43" s="10"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="5">
         <v>0</v>
       </c>
@@ -10488,7 +10483,7 @@
       </c>
     </row>
     <row r="44" spans="3:25">
-      <c r="C44" s="10"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="5">
         <v>0</v>
       </c>
@@ -10550,7 +10545,7 @@
       </c>
     </row>
     <row r="45" spans="3:25">
-      <c r="C45" s="10"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="5">
         <v>0</v>
       </c>
@@ -10612,7 +10607,7 @@
       </c>
     </row>
     <row r="46" spans="3:25">
-      <c r="C46" s="10"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="5">
         <v>0</v>
       </c>
@@ -10674,7 +10669,7 @@
       </c>
     </row>
     <row r="47" spans="3:25">
-      <c r="C47" s="10"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="5">
         <v>0</v>
       </c>
@@ -10736,7 +10731,7 @@
       </c>
     </row>
     <row r="48" spans="3:25">
-      <c r="C48" s="10"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="5">
         <v>0</v>
       </c>
@@ -10798,7 +10793,7 @@
       </c>
     </row>
     <row r="49" spans="3:25">
-      <c r="C49" s="10"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="5">
         <v>0</v>
       </c>
@@ -10860,7 +10855,7 @@
       </c>
     </row>
     <row r="50" spans="3:25">
-      <c r="C50" s="10"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="5">
         <v>0</v>
       </c>
@@ -10922,7 +10917,7 @@
       </c>
     </row>
     <row r="51" spans="3:25">
-      <c r="C51" s="10"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="5">
         <v>0</v>
       </c>
@@ -10984,7 +10979,7 @@
       </c>
     </row>
     <row r="52" spans="3:25">
-      <c r="C52" s="10"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="5">
         <v>0</v>
       </c>
@@ -11046,7 +11041,7 @@
       </c>
     </row>
     <row r="53" spans="3:25">
-      <c r="C53" s="10"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="5">
         <v>0</v>
       </c>
@@ -11108,7 +11103,7 @@
       </c>
     </row>
     <row r="54" spans="3:25">
-      <c r="C54" s="10"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="5">
         <v>0</v>
       </c>
@@ -11170,7 +11165,7 @@
       </c>
     </row>
     <row r="55" spans="3:25">
-      <c r="C55" s="10"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="5">
         <v>0</v>
       </c>
@@ -11232,7 +11227,7 @@
       </c>
     </row>
     <row r="56" spans="3:25">
-      <c r="C56" s="10"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="5">
         <v>0</v>
       </c>
@@ -11294,7 +11289,7 @@
       </c>
     </row>
     <row r="57" spans="3:25">
-      <c r="C57" s="10"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="5">
         <v>0</v>
       </c>
@@ -11356,7 +11351,7 @@
       </c>
     </row>
     <row r="58" spans="3:25">
-      <c r="C58" s="10"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="5">
         <v>0</v>
       </c>
@@ -11418,7 +11413,7 @@
       </c>
     </row>
     <row r="59" spans="3:25">
-      <c r="C59" s="10"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="5">
         <v>0</v>
       </c>
@@ -11480,7 +11475,7 @@
       </c>
     </row>
     <row r="60" spans="3:25">
-      <c r="C60" s="10"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="5">
         <v>0</v>
       </c>
@@ -11542,7 +11537,7 @@
       </c>
     </row>
     <row r="61" spans="3:25">
-      <c r="C61" s="10"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="5">
         <v>0</v>
       </c>
@@ -11604,7 +11599,7 @@
       </c>
     </row>
     <row r="62" spans="3:25">
-      <c r="C62" s="10"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="5">
         <v>0</v>
       </c>
@@ -11666,7 +11661,7 @@
       </c>
     </row>
     <row r="63" spans="3:25">
-      <c r="C63" s="10"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="5">
         <v>0</v>
       </c>
@@ -11728,7 +11723,7 @@
       </c>
     </row>
     <row r="64" spans="3:25">
-      <c r="C64" s="10"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="5">
         <v>0</v>
       </c>
@@ -11790,7 +11785,7 @@
       </c>
     </row>
     <row r="65" spans="3:25">
-      <c r="C65" s="10"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="5">
         <v>0</v>
       </c>
@@ -11852,7 +11847,7 @@
       </c>
     </row>
     <row r="66" spans="3:25">
-      <c r="C66" s="10"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="5">
         <v>0</v>
       </c>
@@ -11914,7 +11909,7 @@
       </c>
     </row>
     <row r="67" spans="3:25">
-      <c r="C67" s="10"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="5">
         <v>0</v>
       </c>
@@ -11976,7 +11971,7 @@
       </c>
     </row>
     <row r="68" spans="3:25">
-      <c r="C68" s="10"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="5">
         <v>0</v>
       </c>
@@ -12061,8 +12056,8 @@
       <c r="Y69" s="6"/>
     </row>
     <row r="70" spans="3:25">
-      <c r="C70" s="10" t="s">
-        <v>135</v>
+      <c r="C70" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="D70" s="5">
         <v>0</v>
@@ -12125,7 +12120,7 @@
       </c>
     </row>
     <row r="71" spans="3:25">
-      <c r="C71" s="10"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="5">
         <v>0</v>
       </c>
@@ -12187,7 +12182,7 @@
       </c>
     </row>
     <row r="72" spans="3:25">
-      <c r="C72" s="10"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="5">
         <v>0</v>
       </c>
@@ -12249,7 +12244,7 @@
       </c>
     </row>
     <row r="73" spans="3:25">
-      <c r="C73" s="10"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="5">
         <v>0</v>
       </c>
@@ -12311,7 +12306,7 @@
       </c>
     </row>
     <row r="74" spans="3:25">
-      <c r="C74" s="10"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="5">
         <v>0</v>
       </c>
@@ -12373,7 +12368,7 @@
       </c>
     </row>
     <row r="75" spans="3:25">
-      <c r="C75" s="10"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="5">
         <v>0</v>
       </c>
@@ -12435,7 +12430,7 @@
       </c>
     </row>
     <row r="76" spans="3:25">
-      <c r="C76" s="10"/>
+      <c r="C76" s="11"/>
       <c r="D76" s="5">
         <v>0</v>
       </c>
@@ -12497,7 +12492,7 @@
       </c>
     </row>
     <row r="77" spans="3:25">
-      <c r="C77" s="10"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="5">
         <v>0</v>
       </c>
@@ -12559,7 +12554,7 @@
       </c>
     </row>
     <row r="78" spans="3:25">
-      <c r="C78" s="10"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="5">
         <v>0</v>
       </c>
@@ -12621,7 +12616,7 @@
       </c>
     </row>
     <row r="79" spans="3:25">
-      <c r="C79" s="10"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="5">
         <v>0</v>
       </c>
@@ -12683,7 +12678,7 @@
       </c>
     </row>
     <row r="80" spans="3:25">
-      <c r="C80" s="10"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="5">
         <v>0</v>
       </c>
@@ -12745,7 +12740,7 @@
       </c>
     </row>
     <row r="81" spans="3:25">
-      <c r="C81" s="10"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="5">
         <v>0</v>
       </c>
@@ -12807,7 +12802,7 @@
       </c>
     </row>
     <row r="82" spans="3:25">
-      <c r="C82" s="10"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="5">
         <v>0</v>
       </c>
@@ -12869,7 +12864,7 @@
       </c>
     </row>
     <row r="83" spans="3:25">
-      <c r="C83" s="10"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="5">
         <v>0</v>
       </c>
@@ -12931,7 +12926,7 @@
       </c>
     </row>
     <row r="84" spans="3:25">
-      <c r="C84" s="10"/>
+      <c r="C84" s="11"/>
       <c r="D84" s="5">
         <v>0</v>
       </c>
@@ -12993,7 +12988,7 @@
       </c>
     </row>
     <row r="85" spans="3:25">
-      <c r="C85" s="10"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="5">
         <v>0</v>
       </c>
@@ -13055,7 +13050,7 @@
       </c>
     </row>
     <row r="86" spans="3:25">
-      <c r="C86" s="10"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="5">
         <v>0</v>
       </c>
@@ -13117,7 +13112,7 @@
       </c>
     </row>
     <row r="87" spans="3:25">
-      <c r="C87" s="10"/>
+      <c r="C87" s="11"/>
       <c r="D87" s="5">
         <v>0</v>
       </c>
@@ -13179,7 +13174,7 @@
       </c>
     </row>
     <row r="88" spans="3:25">
-      <c r="C88" s="10"/>
+      <c r="C88" s="11"/>
       <c r="D88" s="5">
         <v>0</v>
       </c>
@@ -13241,7 +13236,7 @@
       </c>
     </row>
     <row r="89" spans="3:25">
-      <c r="C89" s="10"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="5">
         <v>0</v>
       </c>
@@ -13303,7 +13298,7 @@
       </c>
     </row>
     <row r="90" spans="3:25">
-      <c r="C90" s="10"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="5">
         <v>0</v>
       </c>
@@ -13365,7 +13360,7 @@
       </c>
     </row>
     <row r="91" spans="3:25">
-      <c r="C91" s="10"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="5">
         <v>0</v>
       </c>
@@ -13427,7 +13422,7 @@
       </c>
     </row>
     <row r="92" spans="3:25">
-      <c r="C92" s="10"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="5">
         <v>0</v>
       </c>
@@ -13489,7 +13484,7 @@
       </c>
     </row>
     <row r="93" spans="3:25">
-      <c r="C93" s="10"/>
+      <c r="C93" s="11"/>
       <c r="D93" s="5">
         <v>0</v>
       </c>
@@ -13551,7 +13546,7 @@
       </c>
     </row>
     <row r="94" spans="3:25">
-      <c r="C94" s="10"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="5">
         <v>0</v>
       </c>
@@ -13613,7 +13608,7 @@
       </c>
     </row>
     <row r="95" spans="3:25">
-      <c r="C95" s="10"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="5">
         <v>0</v>
       </c>
@@ -13675,7 +13670,7 @@
       </c>
     </row>
     <row r="96" spans="3:25">
-      <c r="C96" s="10"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="5">
         <v>0</v>
       </c>
@@ -13737,7 +13732,7 @@
       </c>
     </row>
     <row r="97" spans="3:25">
-      <c r="C97" s="10"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="5">
         <v>0</v>
       </c>
@@ -13799,7 +13794,7 @@
       </c>
     </row>
     <row r="98" spans="3:25">
-      <c r="C98" s="10"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="5">
         <v>0</v>
       </c>
@@ -13861,7 +13856,7 @@
       </c>
     </row>
     <row r="99" spans="3:25">
-      <c r="C99" s="10"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="5">
         <v>0</v>
       </c>
@@ -13923,7 +13918,7 @@
       </c>
     </row>
     <row r="100" spans="3:25">
-      <c r="C100" s="10"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="5">
         <v>0</v>
       </c>
@@ -13985,7 +13980,7 @@
       </c>
     </row>
     <row r="101" spans="3:25">
-      <c r="C101" s="10"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="5">
         <v>0</v>
       </c>
@@ -14070,8 +14065,8 @@
       <c r="Y102" s="6"/>
     </row>
     <row r="103" spans="3:25">
-      <c r="C103" s="10" t="s">
-        <v>136</v>
+      <c r="C103" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="D103" s="5">
         <v>0</v>
@@ -14134,7 +14129,7 @@
       </c>
     </row>
     <row r="104" spans="3:25">
-      <c r="C104" s="10"/>
+      <c r="C104" s="11"/>
       <c r="D104" s="5">
         <v>0</v>
       </c>
@@ -14196,7 +14191,7 @@
       </c>
     </row>
     <row r="105" spans="3:25">
-      <c r="C105" s="10"/>
+      <c r="C105" s="11"/>
       <c r="D105" s="5">
         <v>0</v>
       </c>
@@ -14258,7 +14253,7 @@
       </c>
     </row>
     <row r="106" spans="3:25">
-      <c r="C106" s="10"/>
+      <c r="C106" s="11"/>
       <c r="D106" s="5">
         <v>0</v>
       </c>
@@ -14320,7 +14315,7 @@
       </c>
     </row>
     <row r="107" spans="3:25">
-      <c r="C107" s="10"/>
+      <c r="C107" s="11"/>
       <c r="D107" s="5">
         <v>0</v>
       </c>
@@ -14382,7 +14377,7 @@
       </c>
     </row>
     <row r="108" spans="3:25">
-      <c r="C108" s="10"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="5">
         <v>0</v>
       </c>
@@ -14444,7 +14439,7 @@
       </c>
     </row>
     <row r="109" spans="3:25">
-      <c r="C109" s="10"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="5">
         <v>0</v>
       </c>
@@ -14506,7 +14501,7 @@
       </c>
     </row>
     <row r="110" spans="3:25">
-      <c r="C110" s="10"/>
+      <c r="C110" s="11"/>
       <c r="D110" s="5">
         <v>0</v>
       </c>
@@ -14568,7 +14563,7 @@
       </c>
     </row>
     <row r="111" spans="3:25">
-      <c r="C111" s="10"/>
+      <c r="C111" s="11"/>
       <c r="D111" s="5">
         <v>0</v>
       </c>
@@ -14630,7 +14625,7 @@
       </c>
     </row>
     <row r="112" spans="3:25">
-      <c r="C112" s="10"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="5">
         <v>0</v>
       </c>
@@ -14692,7 +14687,7 @@
       </c>
     </row>
     <row r="113" spans="3:25">
-      <c r="C113" s="10"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="5">
         <v>0</v>
       </c>
@@ -14754,7 +14749,7 @@
       </c>
     </row>
     <row r="114" spans="3:25">
-      <c r="C114" s="10"/>
+      <c r="C114" s="11"/>
       <c r="D114" s="5">
         <v>0</v>
       </c>
@@ -14816,7 +14811,7 @@
       </c>
     </row>
     <row r="115" spans="3:25">
-      <c r="C115" s="10"/>
+      <c r="C115" s="11"/>
       <c r="D115" s="5">
         <v>0</v>
       </c>
@@ -14878,7 +14873,7 @@
       </c>
     </row>
     <row r="116" spans="3:25">
-      <c r="C116" s="10"/>
+      <c r="C116" s="11"/>
       <c r="D116" s="5">
         <v>0</v>
       </c>
@@ -14940,7 +14935,7 @@
       </c>
     </row>
     <row r="117" spans="3:25">
-      <c r="C117" s="10"/>
+      <c r="C117" s="11"/>
       <c r="D117" s="5">
         <v>0</v>
       </c>
@@ -15002,7 +14997,7 @@
       </c>
     </row>
     <row r="118" spans="3:25">
-      <c r="C118" s="10"/>
+      <c r="C118" s="11"/>
       <c r="D118" s="5">
         <v>0</v>
       </c>
@@ -15064,7 +15059,7 @@
       </c>
     </row>
     <row r="119" spans="3:25">
-      <c r="C119" s="10"/>
+      <c r="C119" s="11"/>
       <c r="D119" s="5">
         <v>0</v>
       </c>
@@ -15126,7 +15121,7 @@
       </c>
     </row>
     <row r="120" spans="3:25">
-      <c r="C120" s="10"/>
+      <c r="C120" s="11"/>
       <c r="D120" s="5">
         <v>0</v>
       </c>
@@ -15188,7 +15183,7 @@
       </c>
     </row>
     <row r="121" spans="3:25">
-      <c r="C121" s="10"/>
+      <c r="C121" s="11"/>
       <c r="D121" s="5">
         <v>0</v>
       </c>
@@ -15250,7 +15245,7 @@
       </c>
     </row>
     <row r="122" spans="3:25">
-      <c r="C122" s="10"/>
+      <c r="C122" s="11"/>
       <c r="D122" s="5">
         <v>0</v>
       </c>
@@ -15312,7 +15307,7 @@
       </c>
     </row>
     <row r="123" spans="3:25">
-      <c r="C123" s="10"/>
+      <c r="C123" s="11"/>
       <c r="D123" s="5">
         <v>0</v>
       </c>
@@ -15374,7 +15369,7 @@
       </c>
     </row>
     <row r="124" spans="3:25">
-      <c r="C124" s="10"/>
+      <c r="C124" s="11"/>
       <c r="D124" s="5">
         <v>0</v>
       </c>
@@ -15436,7 +15431,7 @@
       </c>
     </row>
     <row r="125" spans="3:25">
-      <c r="C125" s="10"/>
+      <c r="C125" s="11"/>
       <c r="D125" s="5">
         <v>0</v>
       </c>
@@ -15498,7 +15493,7 @@
       </c>
     </row>
     <row r="126" spans="3:25">
-      <c r="C126" s="10"/>
+      <c r="C126" s="11"/>
       <c r="D126" s="5">
         <v>0</v>
       </c>
@@ -15560,7 +15555,7 @@
       </c>
     </row>
     <row r="127" spans="3:25">
-      <c r="C127" s="10"/>
+      <c r="C127" s="11"/>
       <c r="D127" s="5">
         <v>0</v>
       </c>
@@ -15622,7 +15617,7 @@
       </c>
     </row>
     <row r="128" spans="3:25">
-      <c r="C128" s="10"/>
+      <c r="C128" s="11"/>
       <c r="D128" s="5">
         <v>0</v>
       </c>
@@ -15684,7 +15679,7 @@
       </c>
     </row>
     <row r="129" spans="3:25">
-      <c r="C129" s="10"/>
+      <c r="C129" s="11"/>
       <c r="D129" s="5">
         <v>0</v>
       </c>
@@ -15746,7 +15741,7 @@
       </c>
     </row>
     <row r="130" spans="3:25">
-      <c r="C130" s="10"/>
+      <c r="C130" s="11"/>
       <c r="D130" s="5">
         <v>0</v>
       </c>
@@ -15808,7 +15803,7 @@
       </c>
     </row>
     <row r="131" spans="3:25">
-      <c r="C131" s="10"/>
+      <c r="C131" s="11"/>
       <c r="D131" s="5">
         <v>0</v>
       </c>
@@ -15870,7 +15865,7 @@
       </c>
     </row>
     <row r="132" spans="3:25">
-      <c r="C132" s="10"/>
+      <c r="C132" s="11"/>
       <c r="D132" s="5">
         <v>0</v>
       </c>
@@ -15932,7 +15927,7 @@
       </c>
     </row>
     <row r="133" spans="3:25">
-      <c r="C133" s="10"/>
+      <c r="C133" s="11"/>
       <c r="D133" s="5">
         <v>0</v>
       </c>
@@ -15994,7 +15989,7 @@
       </c>
     </row>
     <row r="134" spans="3:25">
-      <c r="C134" s="10"/>
+      <c r="C134" s="11"/>
       <c r="D134" s="5">
         <v>0</v>
       </c>
@@ -16079,8 +16074,8 @@
       <c r="Y135" s="6"/>
     </row>
     <row r="136" spans="3:25">
-      <c r="C136" s="10" t="s">
-        <v>139</v>
+      <c r="C136" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="D136" s="5">
         <v>0</v>
@@ -16143,7 +16138,7 @@
       </c>
     </row>
     <row r="137" spans="3:25">
-      <c r="C137" s="10"/>
+      <c r="C137" s="11"/>
       <c r="D137" s="5">
         <v>0</v>
       </c>
@@ -16205,7 +16200,7 @@
       </c>
     </row>
     <row r="138" spans="3:25">
-      <c r="C138" s="10"/>
+      <c r="C138" s="11"/>
       <c r="D138" s="5">
         <v>0</v>
       </c>
@@ -16267,7 +16262,7 @@
       </c>
     </row>
     <row r="139" spans="3:25">
-      <c r="C139" s="10"/>
+      <c r="C139" s="11"/>
       <c r="D139" s="5">
         <v>0</v>
       </c>
@@ -16329,7 +16324,7 @@
       </c>
     </row>
     <row r="140" spans="3:25">
-      <c r="C140" s="10"/>
+      <c r="C140" s="11"/>
       <c r="D140" s="5">
         <v>0</v>
       </c>
@@ -16391,7 +16386,7 @@
       </c>
     </row>
     <row r="141" spans="3:25">
-      <c r="C141" s="10"/>
+      <c r="C141" s="11"/>
       <c r="D141" s="5">
         <v>0</v>
       </c>
@@ -16453,7 +16448,7 @@
       </c>
     </row>
     <row r="142" spans="3:25">
-      <c r="C142" s="10"/>
+      <c r="C142" s="11"/>
       <c r="D142" s="5">
         <v>0</v>
       </c>
@@ -16515,7 +16510,7 @@
       </c>
     </row>
     <row r="143" spans="3:25">
-      <c r="C143" s="10"/>
+      <c r="C143" s="11"/>
       <c r="D143" s="5">
         <v>0</v>
       </c>
@@ -16577,7 +16572,7 @@
       </c>
     </row>
     <row r="144" spans="3:25">
-      <c r="C144" s="10"/>
+      <c r="C144" s="11"/>
       <c r="D144" s="5">
         <v>0</v>
       </c>
@@ -16639,7 +16634,7 @@
       </c>
     </row>
     <row r="145" spans="3:25">
-      <c r="C145" s="10"/>
+      <c r="C145" s="11"/>
       <c r="D145" s="5">
         <v>0</v>
       </c>
@@ -16701,7 +16696,7 @@
       </c>
     </row>
     <row r="146" spans="3:25">
-      <c r="C146" s="10"/>
+      <c r="C146" s="11"/>
       <c r="D146" s="5">
         <v>0</v>
       </c>
@@ -16763,7 +16758,7 @@
       </c>
     </row>
     <row r="147" spans="3:25">
-      <c r="C147" s="10"/>
+      <c r="C147" s="11"/>
       <c r="D147" s="5">
         <v>0</v>
       </c>
@@ -16825,7 +16820,7 @@
       </c>
     </row>
     <row r="148" spans="3:25">
-      <c r="C148" s="10"/>
+      <c r="C148" s="11"/>
       <c r="D148" s="5">
         <v>0</v>
       </c>
@@ -16887,7 +16882,7 @@
       </c>
     </row>
     <row r="149" spans="3:25">
-      <c r="C149" s="10"/>
+      <c r="C149" s="11"/>
       <c r="D149" s="5">
         <v>0</v>
       </c>
@@ -16949,7 +16944,7 @@
       </c>
     </row>
     <row r="150" spans="3:25">
-      <c r="C150" s="10"/>
+      <c r="C150" s="11"/>
       <c r="D150" s="5">
         <v>0</v>
       </c>
@@ -17011,7 +17006,7 @@
       </c>
     </row>
     <row r="151" spans="3:25">
-      <c r="C151" s="10"/>
+      <c r="C151" s="11"/>
       <c r="D151" s="5">
         <v>0</v>
       </c>
@@ -17073,7 +17068,7 @@
       </c>
     </row>
     <row r="152" spans="3:25">
-      <c r="C152" s="10"/>
+      <c r="C152" s="11"/>
       <c r="D152" s="5">
         <v>0</v>
       </c>
@@ -17135,7 +17130,7 @@
       </c>
     </row>
     <row r="153" spans="3:25">
-      <c r="C153" s="10"/>
+      <c r="C153" s="11"/>
       <c r="D153" s="5">
         <v>0</v>
       </c>
@@ -17197,7 +17192,7 @@
       </c>
     </row>
     <row r="154" spans="3:25">
-      <c r="C154" s="10"/>
+      <c r="C154" s="11"/>
       <c r="D154" s="5">
         <v>0</v>
       </c>
@@ -17259,7 +17254,7 @@
       </c>
     </row>
     <row r="155" spans="3:25">
-      <c r="C155" s="10"/>
+      <c r="C155" s="11"/>
       <c r="D155" s="5">
         <v>0</v>
       </c>
@@ -17321,7 +17316,7 @@
       </c>
     </row>
     <row r="156" spans="3:25">
-      <c r="C156" s="10"/>
+      <c r="C156" s="11"/>
       <c r="D156" s="5">
         <v>0</v>
       </c>
@@ -17383,7 +17378,7 @@
       </c>
     </row>
     <row r="157" spans="3:25">
-      <c r="C157" s="10"/>
+      <c r="C157" s="11"/>
       <c r="D157" s="5">
         <v>0</v>
       </c>
@@ -17445,7 +17440,7 @@
       </c>
     </row>
     <row r="158" spans="3:25">
-      <c r="C158" s="10"/>
+      <c r="C158" s="11"/>
       <c r="D158" s="5">
         <v>0</v>
       </c>
@@ -17507,7 +17502,7 @@
       </c>
     </row>
     <row r="159" spans="3:25">
-      <c r="C159" s="10"/>
+      <c r="C159" s="11"/>
       <c r="D159" s="5">
         <v>0</v>
       </c>
@@ -17569,7 +17564,7 @@
       </c>
     </row>
     <row r="160" spans="3:25">
-      <c r="C160" s="10"/>
+      <c r="C160" s="11"/>
       <c r="D160" s="5">
         <v>0</v>
       </c>
@@ -17631,7 +17626,7 @@
       </c>
     </row>
     <row r="161" spans="3:25">
-      <c r="C161" s="10"/>
+      <c r="C161" s="11"/>
       <c r="D161" s="5">
         <v>0</v>
       </c>
@@ -17693,7 +17688,7 @@
       </c>
     </row>
     <row r="162" spans="3:25">
-      <c r="C162" s="10"/>
+      <c r="C162" s="11"/>
       <c r="D162" s="5">
         <v>0</v>
       </c>
@@ -17755,7 +17750,7 @@
       </c>
     </row>
     <row r="163" spans="3:25">
-      <c r="C163" s="10"/>
+      <c r="C163" s="11"/>
       <c r="D163" s="5">
         <v>0</v>
       </c>
@@ -17817,7 +17812,7 @@
       </c>
     </row>
     <row r="164" spans="3:25">
-      <c r="C164" s="10"/>
+      <c r="C164" s="11"/>
       <c r="D164" s="5">
         <v>0</v>
       </c>
@@ -17879,7 +17874,7 @@
       </c>
     </row>
     <row r="165" spans="3:25">
-      <c r="C165" s="10"/>
+      <c r="C165" s="11"/>
       <c r="D165" s="5">
         <v>0</v>
       </c>
@@ -17941,7 +17936,7 @@
       </c>
     </row>
     <row r="166" spans="3:25">
-      <c r="C166" s="10"/>
+      <c r="C166" s="11"/>
       <c r="D166" s="5">
         <v>0</v>
       </c>
@@ -18003,7 +17998,7 @@
       </c>
     </row>
     <row r="167" spans="3:25">
-      <c r="C167" s="10"/>
+      <c r="C167" s="11"/>
       <c r="D167" s="5">
         <v>0</v>
       </c>
@@ -18088,8 +18083,8 @@
       <c r="Y168" s="9"/>
     </row>
     <row r="169" spans="3:25">
-      <c r="C169" s="10" t="s">
-        <v>137</v>
+      <c r="C169" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="D169" s="5">
         <v>0</v>
@@ -18152,7 +18147,7 @@
       </c>
     </row>
     <row r="170" spans="3:25">
-      <c r="C170" s="10"/>
+      <c r="C170" s="11"/>
       <c r="D170" s="5">
         <v>0</v>
       </c>
@@ -18214,7 +18209,7 @@
       </c>
     </row>
     <row r="171" spans="3:25">
-      <c r="C171" s="10"/>
+      <c r="C171" s="11"/>
       <c r="D171" s="5">
         <v>0</v>
       </c>
@@ -18276,7 +18271,7 @@
       </c>
     </row>
     <row r="172" spans="3:25">
-      <c r="C172" s="10"/>
+      <c r="C172" s="11"/>
       <c r="D172" s="5">
         <v>0</v>
       </c>
@@ -18338,7 +18333,7 @@
       </c>
     </row>
     <row r="173" spans="3:25">
-      <c r="C173" s="10"/>
+      <c r="C173" s="11"/>
       <c r="D173" s="5">
         <v>0</v>
       </c>
@@ -18400,7 +18395,7 @@
       </c>
     </row>
     <row r="174" spans="3:25">
-      <c r="C174" s="10"/>
+      <c r="C174" s="11"/>
       <c r="D174" s="5">
         <v>0</v>
       </c>
@@ -18462,7 +18457,7 @@
       </c>
     </row>
     <row r="175" spans="3:25">
-      <c r="C175" s="10"/>
+      <c r="C175" s="11"/>
       <c r="D175" s="5">
         <v>0</v>
       </c>
@@ -18524,7 +18519,7 @@
       </c>
     </row>
     <row r="176" spans="3:25">
-      <c r="C176" s="10"/>
+      <c r="C176" s="11"/>
       <c r="D176" s="5">
         <v>0</v>
       </c>
@@ -18586,7 +18581,7 @@
       </c>
     </row>
     <row r="177" spans="3:25">
-      <c r="C177" s="10"/>
+      <c r="C177" s="11"/>
       <c r="D177" s="5">
         <v>0</v>
       </c>
@@ -18648,7 +18643,7 @@
       </c>
     </row>
     <row r="178" spans="3:25">
-      <c r="C178" s="10"/>
+      <c r="C178" s="11"/>
       <c r="D178" s="5">
         <v>0</v>
       </c>
@@ -18710,7 +18705,7 @@
       </c>
     </row>
     <row r="179" spans="3:25">
-      <c r="C179" s="10"/>
+      <c r="C179" s="11"/>
       <c r="D179" s="5">
         <v>0</v>
       </c>
@@ -18772,7 +18767,7 @@
       </c>
     </row>
     <row r="180" spans="3:25">
-      <c r="C180" s="10"/>
+      <c r="C180" s="11"/>
       <c r="D180" s="5">
         <v>0</v>
       </c>
@@ -18834,7 +18829,7 @@
       </c>
     </row>
     <row r="181" spans="3:25">
-      <c r="C181" s="10"/>
+      <c r="C181" s="11"/>
       <c r="D181" s="5">
         <v>0</v>
       </c>
@@ -18896,7 +18891,7 @@
       </c>
     </row>
     <row r="182" spans="3:25">
-      <c r="C182" s="10"/>
+      <c r="C182" s="11"/>
       <c r="D182" s="5">
         <v>0</v>
       </c>
@@ -18958,7 +18953,7 @@
       </c>
     </row>
     <row r="183" spans="3:25">
-      <c r="C183" s="10"/>
+      <c r="C183" s="11"/>
       <c r="D183" s="5">
         <v>0</v>
       </c>
@@ -19020,7 +19015,7 @@
       </c>
     </row>
     <row r="184" spans="3:25">
-      <c r="C184" s="10"/>
+      <c r="C184" s="11"/>
       <c r="D184" s="5">
         <v>0</v>
       </c>
@@ -19082,7 +19077,7 @@
       </c>
     </row>
     <row r="185" spans="3:25">
-      <c r="C185" s="10"/>
+      <c r="C185" s="11"/>
       <c r="D185" s="5">
         <v>0</v>
       </c>
@@ -19144,7 +19139,7 @@
       </c>
     </row>
     <row r="186" spans="3:25">
-      <c r="C186" s="10"/>
+      <c r="C186" s="11"/>
       <c r="D186" s="5">
         <v>0</v>
       </c>
@@ -19206,7 +19201,7 @@
       </c>
     </row>
     <row r="187" spans="3:25">
-      <c r="C187" s="10"/>
+      <c r="C187" s="11"/>
       <c r="D187" s="5">
         <v>0</v>
       </c>
@@ -19268,7 +19263,7 @@
       </c>
     </row>
     <row r="188" spans="3:25">
-      <c r="C188" s="10"/>
+      <c r="C188" s="11"/>
       <c r="D188" s="5">
         <v>0</v>
       </c>
@@ -19330,7 +19325,7 @@
       </c>
     </row>
     <row r="189" spans="3:25">
-      <c r="C189" s="10"/>
+      <c r="C189" s="11"/>
       <c r="D189" s="5">
         <v>0</v>
       </c>
@@ -19392,7 +19387,7 @@
       </c>
     </row>
     <row r="190" spans="3:25">
-      <c r="C190" s="10"/>
+      <c r="C190" s="11"/>
       <c r="D190" s="5">
         <v>0</v>
       </c>
@@ -19454,7 +19449,7 @@
       </c>
     </row>
     <row r="191" spans="3:25">
-      <c r="C191" s="10"/>
+      <c r="C191" s="11"/>
       <c r="D191" s="5">
         <v>0</v>
       </c>
@@ -19516,7 +19511,7 @@
       </c>
     </row>
     <row r="192" spans="3:25">
-      <c r="C192" s="10"/>
+      <c r="C192" s="11"/>
       <c r="D192" s="5">
         <v>0</v>
       </c>
@@ -19578,7 +19573,7 @@
       </c>
     </row>
     <row r="193" spans="3:25">
-      <c r="C193" s="10"/>
+      <c r="C193" s="11"/>
       <c r="D193" s="5">
         <v>0</v>
       </c>
@@ -19640,7 +19635,7 @@
       </c>
     </row>
     <row r="194" spans="3:25">
-      <c r="C194" s="10"/>
+      <c r="C194" s="11"/>
       <c r="D194" s="5">
         <v>0</v>
       </c>
@@ -19702,7 +19697,7 @@
       </c>
     </row>
     <row r="195" spans="3:25">
-      <c r="C195" s="10"/>
+      <c r="C195" s="11"/>
       <c r="D195" s="5">
         <v>0</v>
       </c>
@@ -19764,7 +19759,7 @@
       </c>
     </row>
     <row r="196" spans="3:25">
-      <c r="C196" s="10"/>
+      <c r="C196" s="11"/>
       <c r="D196" s="5">
         <v>0</v>
       </c>
@@ -19826,7 +19821,7 @@
       </c>
     </row>
     <row r="197" spans="3:25">
-      <c r="C197" s="10"/>
+      <c r="C197" s="11"/>
       <c r="D197" s="5">
         <v>0</v>
       </c>
@@ -19888,7 +19883,7 @@
       </c>
     </row>
     <row r="198" spans="3:25">
-      <c r="C198" s="10"/>
+      <c r="C198" s="11"/>
       <c r="D198" s="5">
         <v>0</v>
       </c>
@@ -19950,7 +19945,7 @@
       </c>
     </row>
     <row r="199" spans="3:25">
-      <c r="C199" s="10"/>
+      <c r="C199" s="11"/>
       <c r="D199" s="5">
         <v>0</v>
       </c>
@@ -20012,7 +20007,7 @@
       </c>
     </row>
     <row r="200" spans="3:25">
-      <c r="C200" s="10"/>
+      <c r="C200" s="11"/>
       <c r="D200" s="5">
         <v>0</v>
       </c>
@@ -20097,8 +20092,8 @@
       <c r="Y201" s="9"/>
     </row>
     <row r="202" spans="3:25">
-      <c r="C202" s="10" t="s">
-        <v>138</v>
+      <c r="C202" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D202" s="5">
         <v>0</v>
@@ -20161,7 +20156,7 @@
       </c>
     </row>
     <row r="203" spans="3:25">
-      <c r="C203" s="10"/>
+      <c r="C203" s="11"/>
       <c r="D203" s="5">
         <v>0</v>
       </c>
@@ -20223,7 +20218,7 @@
       </c>
     </row>
     <row r="204" spans="3:25">
-      <c r="C204" s="10"/>
+      <c r="C204" s="11"/>
       <c r="D204" s="5">
         <v>0</v>
       </c>
@@ -20285,7 +20280,7 @@
       </c>
     </row>
     <row r="205" spans="3:25">
-      <c r="C205" s="10"/>
+      <c r="C205" s="11"/>
       <c r="D205" s="5">
         <v>0</v>
       </c>
@@ -20347,7 +20342,7 @@
       </c>
     </row>
     <row r="206" spans="3:25">
-      <c r="C206" s="10"/>
+      <c r="C206" s="11"/>
       <c r="D206" s="5">
         <v>0</v>
       </c>
@@ -20409,7 +20404,7 @@
       </c>
     </row>
     <row r="207" spans="3:25">
-      <c r="C207" s="10"/>
+      <c r="C207" s="11"/>
       <c r="D207" s="5">
         <v>0</v>
       </c>
@@ -20471,7 +20466,7 @@
       </c>
     </row>
     <row r="208" spans="3:25">
-      <c r="C208" s="10"/>
+      <c r="C208" s="11"/>
       <c r="D208" s="5">
         <v>0</v>
       </c>
@@ -20533,7 +20528,7 @@
       </c>
     </row>
     <row r="209" spans="3:25">
-      <c r="C209" s="10"/>
+      <c r="C209" s="11"/>
       <c r="D209" s="5">
         <v>0</v>
       </c>
@@ -20595,7 +20590,7 @@
       </c>
     </row>
     <row r="210" spans="3:25">
-      <c r="C210" s="10"/>
+      <c r="C210" s="11"/>
       <c r="D210" s="5">
         <v>0</v>
       </c>
@@ -20657,7 +20652,7 @@
       </c>
     </row>
     <row r="211" spans="3:25">
-      <c r="C211" s="10"/>
+      <c r="C211" s="11"/>
       <c r="D211" s="5">
         <v>0</v>
       </c>
@@ -20719,7 +20714,7 @@
       </c>
     </row>
     <row r="212" spans="3:25">
-      <c r="C212" s="10"/>
+      <c r="C212" s="11"/>
       <c r="D212" s="5">
         <v>0</v>
       </c>
@@ -20781,7 +20776,7 @@
       </c>
     </row>
     <row r="213" spans="3:25">
-      <c r="C213" s="10"/>
+      <c r="C213" s="11"/>
       <c r="D213" s="5">
         <v>0</v>
       </c>
@@ -20843,7 +20838,7 @@
       </c>
     </row>
     <row r="214" spans="3:25">
-      <c r="C214" s="10"/>
+      <c r="C214" s="11"/>
       <c r="D214" s="5">
         <v>0</v>
       </c>
@@ -20905,7 +20900,7 @@
       </c>
     </row>
     <row r="215" spans="3:25">
-      <c r="C215" s="10"/>
+      <c r="C215" s="11"/>
       <c r="D215" s="5">
         <v>0</v>
       </c>
@@ -20967,7 +20962,7 @@
       </c>
     </row>
     <row r="216" spans="3:25">
-      <c r="C216" s="10"/>
+      <c r="C216" s="11"/>
       <c r="D216" s="5">
         <v>0</v>
       </c>
@@ -21029,7 +21024,7 @@
       </c>
     </row>
     <row r="217" spans="3:25">
-      <c r="C217" s="10"/>
+      <c r="C217" s="11"/>
       <c r="D217" s="5">
         <v>0</v>
       </c>
@@ -21091,7 +21086,7 @@
       </c>
     </row>
     <row r="218" spans="3:25">
-      <c r="C218" s="10"/>
+      <c r="C218" s="11"/>
       <c r="D218" s="5">
         <v>0</v>
       </c>
@@ -21153,7 +21148,7 @@
       </c>
     </row>
     <row r="219" spans="3:25">
-      <c r="C219" s="10"/>
+      <c r="C219" s="11"/>
       <c r="D219" s="5">
         <v>0</v>
       </c>
@@ -21215,7 +21210,7 @@
       </c>
     </row>
     <row r="220" spans="3:25">
-      <c r="C220" s="10"/>
+      <c r="C220" s="11"/>
       <c r="D220" s="5">
         <v>0</v>
       </c>
@@ -21277,7 +21272,7 @@
       </c>
     </row>
     <row r="221" spans="3:25">
-      <c r="C221" s="10"/>
+      <c r="C221" s="11"/>
       <c r="D221" s="5">
         <v>0</v>
       </c>
@@ -21339,7 +21334,7 @@
       </c>
     </row>
     <row r="222" spans="3:25">
-      <c r="C222" s="10"/>
+      <c r="C222" s="11"/>
       <c r="D222" s="5">
         <v>0</v>
       </c>
@@ -21401,7 +21396,7 @@
       </c>
     </row>
     <row r="223" spans="3:25">
-      <c r="C223" s="10"/>
+      <c r="C223" s="11"/>
       <c r="D223" s="5">
         <v>0</v>
       </c>
@@ -21463,7 +21458,7 @@
       </c>
     </row>
     <row r="224" spans="3:25">
-      <c r="C224" s="10"/>
+      <c r="C224" s="11"/>
       <c r="D224" s="5">
         <v>0</v>
       </c>
@@ -21525,7 +21520,7 @@
       </c>
     </row>
     <row r="225" spans="3:25">
-      <c r="C225" s="10"/>
+      <c r="C225" s="11"/>
       <c r="D225" s="5">
         <v>0</v>
       </c>
@@ -21587,7 +21582,7 @@
       </c>
     </row>
     <row r="226" spans="3:25">
-      <c r="C226" s="10"/>
+      <c r="C226" s="11"/>
       <c r="D226" s="5">
         <v>0</v>
       </c>
@@ -21649,7 +21644,7 @@
       </c>
     </row>
     <row r="227" spans="3:25">
-      <c r="C227" s="10"/>
+      <c r="C227" s="11"/>
       <c r="D227" s="5">
         <v>0</v>
       </c>
@@ -21711,7 +21706,7 @@
       </c>
     </row>
     <row r="228" spans="3:25">
-      <c r="C228" s="10"/>
+      <c r="C228" s="11"/>
       <c r="D228" s="5">
         <v>0</v>
       </c>
@@ -21773,7 +21768,7 @@
       </c>
     </row>
     <row r="229" spans="3:25">
-      <c r="C229" s="10"/>
+      <c r="C229" s="11"/>
       <c r="D229" s="5">
         <v>0</v>
       </c>
@@ -21835,7 +21830,7 @@
       </c>
     </row>
     <row r="230" spans="3:25">
-      <c r="C230" s="10"/>
+      <c r="C230" s="11"/>
       <c r="D230" s="5">
         <v>0</v>
       </c>
@@ -21897,7 +21892,7 @@
       </c>
     </row>
     <row r="231" spans="3:25">
-      <c r="C231" s="10"/>
+      <c r="C231" s="11"/>
       <c r="D231" s="5">
         <v>0</v>
       </c>
@@ -21959,7 +21954,7 @@
       </c>
     </row>
     <row r="232" spans="3:25">
-      <c r="C232" s="10"/>
+      <c r="C232" s="11"/>
       <c r="D232" s="5">
         <v>0</v>
       </c>
@@ -22021,7 +22016,7 @@
       </c>
     </row>
     <row r="233" spans="3:25">
-      <c r="C233" s="10"/>
+      <c r="C233" s="11"/>
       <c r="D233" s="5">
         <v>0</v>
       </c>
@@ -22105,8 +22100,8 @@
       <c r="Y234" s="9"/>
     </row>
     <row r="235" spans="3:25">
-      <c r="C235" s="10" t="s">
-        <v>140</v>
+      <c r="C235" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="D235" s="5">
         <v>0</v>
@@ -22169,7 +22164,7 @@
       </c>
     </row>
     <row r="236" spans="3:25">
-      <c r="C236" s="10"/>
+      <c r="C236" s="11"/>
       <c r="D236" s="5">
         <v>0</v>
       </c>
@@ -22231,7 +22226,7 @@
       </c>
     </row>
     <row r="237" spans="3:25">
-      <c r="C237" s="10"/>
+      <c r="C237" s="11"/>
       <c r="D237" s="5">
         <v>0</v>
       </c>
@@ -22293,7 +22288,7 @@
       </c>
     </row>
     <row r="238" spans="3:25">
-      <c r="C238" s="10"/>
+      <c r="C238" s="11"/>
       <c r="D238" s="5">
         <v>0</v>
       </c>
@@ -22355,7 +22350,7 @@
       </c>
     </row>
     <row r="239" spans="3:25">
-      <c r="C239" s="10"/>
+      <c r="C239" s="11"/>
       <c r="D239" s="5">
         <v>0</v>
       </c>
@@ -22417,7 +22412,7 @@
       </c>
     </row>
     <row r="240" spans="3:25">
-      <c r="C240" s="10"/>
+      <c r="C240" s="11"/>
       <c r="D240" s="5">
         <v>0</v>
       </c>
@@ -22479,7 +22474,7 @@
       </c>
     </row>
     <row r="241" spans="3:25">
-      <c r="C241" s="10"/>
+      <c r="C241" s="11"/>
       <c r="D241" s="5">
         <v>0</v>
       </c>
@@ -22541,7 +22536,7 @@
       </c>
     </row>
     <row r="242" spans="3:25">
-      <c r="C242" s="10"/>
+      <c r="C242" s="11"/>
       <c r="D242" s="5">
         <v>0</v>
       </c>
@@ -22603,7 +22598,7 @@
       </c>
     </row>
     <row r="243" spans="3:25">
-      <c r="C243" s="10"/>
+      <c r="C243" s="11"/>
       <c r="D243" s="5">
         <v>0</v>
       </c>
@@ -22665,7 +22660,7 @@
       </c>
     </row>
     <row r="244" spans="3:25">
-      <c r="C244" s="10"/>
+      <c r="C244" s="11"/>
       <c r="D244" s="5">
         <v>0</v>
       </c>
@@ -22727,7 +22722,7 @@
       </c>
     </row>
     <row r="245" spans="3:25">
-      <c r="C245" s="10"/>
+      <c r="C245" s="11"/>
       <c r="D245" s="5">
         <v>0</v>
       </c>
@@ -22789,7 +22784,7 @@
       </c>
     </row>
     <row r="246" spans="3:25">
-      <c r="C246" s="10"/>
+      <c r="C246" s="11"/>
       <c r="D246" s="5">
         <v>0</v>
       </c>
@@ -22851,7 +22846,7 @@
       </c>
     </row>
     <row r="247" spans="3:25">
-      <c r="C247" s="10"/>
+      <c r="C247" s="11"/>
       <c r="D247" s="5">
         <v>0</v>
       </c>
@@ -22913,7 +22908,7 @@
       </c>
     </row>
     <row r="248" spans="3:25">
-      <c r="C248" s="10"/>
+      <c r="C248" s="11"/>
       <c r="D248" s="5">
         <v>0</v>
       </c>
@@ -22975,7 +22970,7 @@
       </c>
     </row>
     <row r="249" spans="3:25">
-      <c r="C249" s="10"/>
+      <c r="C249" s="11"/>
       <c r="D249" s="5">
         <v>0</v>
       </c>
@@ -23037,7 +23032,7 @@
       </c>
     </row>
     <row r="250" spans="3:25">
-      <c r="C250" s="10"/>
+      <c r="C250" s="11"/>
       <c r="D250" s="5">
         <v>0</v>
       </c>
@@ -23099,7 +23094,7 @@
       </c>
     </row>
     <row r="251" spans="3:25">
-      <c r="C251" s="10"/>
+      <c r="C251" s="11"/>
       <c r="D251" s="5">
         <v>0</v>
       </c>
@@ -23161,7 +23156,7 @@
       </c>
     </row>
     <row r="252" spans="3:25">
-      <c r="C252" s="10"/>
+      <c r="C252" s="11"/>
       <c r="D252" s="5">
         <v>0</v>
       </c>
@@ -23223,7 +23218,7 @@
       </c>
     </row>
     <row r="253" spans="3:25">
-      <c r="C253" s="10"/>
+      <c r="C253" s="11"/>
       <c r="D253" s="5">
         <v>0</v>
       </c>
@@ -23285,7 +23280,7 @@
       </c>
     </row>
     <row r="254" spans="3:25">
-      <c r="C254" s="10"/>
+      <c r="C254" s="11"/>
       <c r="D254" s="5">
         <v>0</v>
       </c>
@@ -23347,7 +23342,7 @@
       </c>
     </row>
     <row r="255" spans="3:25">
-      <c r="C255" s="10"/>
+      <c r="C255" s="11"/>
       <c r="D255" s="5">
         <v>0</v>
       </c>
@@ -23409,7 +23404,7 @@
       </c>
     </row>
     <row r="256" spans="3:25">
-      <c r="C256" s="10"/>
+      <c r="C256" s="11"/>
       <c r="D256" s="5">
         <v>0</v>
       </c>
@@ -23471,7 +23466,7 @@
       </c>
     </row>
     <row r="257" spans="3:25">
-      <c r="C257" s="10"/>
+      <c r="C257" s="11"/>
       <c r="D257" s="5">
         <v>0</v>
       </c>
@@ -23533,7 +23528,7 @@
       </c>
     </row>
     <row r="258" spans="3:25">
-      <c r="C258" s="10"/>
+      <c r="C258" s="11"/>
       <c r="D258" s="5">
         <v>0</v>
       </c>
@@ -23595,7 +23590,7 @@
       </c>
     </row>
     <row r="259" spans="3:25">
-      <c r="C259" s="10"/>
+      <c r="C259" s="11"/>
       <c r="D259" s="5">
         <v>0</v>
       </c>
@@ -23657,7 +23652,7 @@
       </c>
     </row>
     <row r="260" spans="3:25">
-      <c r="C260" s="10"/>
+      <c r="C260" s="11"/>
       <c r="D260" s="5">
         <v>0</v>
       </c>
@@ -23719,7 +23714,7 @@
       </c>
     </row>
     <row r="261" spans="3:25">
-      <c r="C261" s="10"/>
+      <c r="C261" s="11"/>
       <c r="D261" s="5">
         <v>0</v>
       </c>
@@ -23781,7 +23776,7 @@
       </c>
     </row>
     <row r="262" spans="3:25">
-      <c r="C262" s="10"/>
+      <c r="C262" s="11"/>
       <c r="D262" s="5">
         <v>0</v>
       </c>
@@ -23843,7 +23838,7 @@
       </c>
     </row>
     <row r="263" spans="3:25">
-      <c r="C263" s="10"/>
+      <c r="C263" s="11"/>
       <c r="D263" s="5">
         <v>0</v>
       </c>
@@ -23905,7 +23900,7 @@
       </c>
     </row>
     <row r="264" spans="3:25">
-      <c r="C264" s="10"/>
+      <c r="C264" s="11"/>
       <c r="D264" s="5">
         <v>0</v>
       </c>
@@ -23967,7 +23962,7 @@
       </c>
     </row>
     <row r="265" spans="3:25">
-      <c r="C265" s="10"/>
+      <c r="C265" s="11"/>
       <c r="D265" s="5">
         <v>0</v>
       </c>
@@ -24029,7 +24024,7 @@
       </c>
     </row>
     <row r="266" spans="3:25">
-      <c r="C266" s="10"/>
+      <c r="C266" s="11"/>
       <c r="D266" s="5">
         <v>0</v>
       </c>
@@ -24113,8 +24108,8 @@
       <c r="Y267" s="9"/>
     </row>
     <row r="268" spans="3:25">
-      <c r="C268" s="10" t="s">
-        <v>141</v>
+      <c r="C268" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="D268" s="5">
         <v>1</v>
@@ -24177,7 +24172,7 @@
       </c>
     </row>
     <row r="269" spans="3:25">
-      <c r="C269" s="10"/>
+      <c r="C269" s="11"/>
       <c r="D269" s="5">
         <v>1</v>
       </c>
@@ -24239,7 +24234,7 @@
       </c>
     </row>
     <row r="270" spans="3:25">
-      <c r="C270" s="10"/>
+      <c r="C270" s="11"/>
       <c r="D270" s="5">
         <v>1</v>
       </c>
@@ -24301,7 +24296,7 @@
       </c>
     </row>
     <row r="271" spans="3:25">
-      <c r="C271" s="10"/>
+      <c r="C271" s="11"/>
       <c r="D271" s="5">
         <v>1</v>
       </c>
@@ -24363,7 +24358,7 @@
       </c>
     </row>
     <row r="272" spans="3:25">
-      <c r="C272" s="10"/>
+      <c r="C272" s="11"/>
       <c r="D272" s="5">
         <v>1</v>
       </c>
@@ -24425,7 +24420,7 @@
       </c>
     </row>
     <row r="273" spans="3:25">
-      <c r="C273" s="10"/>
+      <c r="C273" s="11"/>
       <c r="D273" s="5">
         <v>1</v>
       </c>
@@ -24487,7 +24482,7 @@
       </c>
     </row>
     <row r="274" spans="3:25">
-      <c r="C274" s="10"/>
+      <c r="C274" s="11"/>
       <c r="D274" s="5">
         <v>1</v>
       </c>
@@ -24549,7 +24544,7 @@
       </c>
     </row>
     <row r="275" spans="3:25">
-      <c r="C275" s="10"/>
+      <c r="C275" s="11"/>
       <c r="D275" s="5">
         <v>1</v>
       </c>
@@ -24611,7 +24606,7 @@
       </c>
     </row>
     <row r="276" spans="3:25">
-      <c r="C276" s="10"/>
+      <c r="C276" s="11"/>
       <c r="D276" s="5">
         <v>1</v>
       </c>
@@ -24673,7 +24668,7 @@
       </c>
     </row>
     <row r="277" spans="3:25">
-      <c r="C277" s="10"/>
+      <c r="C277" s="11"/>
       <c r="D277" s="5">
         <v>1</v>
       </c>
@@ -24735,7 +24730,7 @@
       </c>
     </row>
     <row r="278" spans="3:25">
-      <c r="C278" s="10"/>
+      <c r="C278" s="11"/>
       <c r="D278" s="5">
         <v>1</v>
       </c>
@@ -24797,7 +24792,7 @@
       </c>
     </row>
     <row r="279" spans="3:25">
-      <c r="C279" s="10"/>
+      <c r="C279" s="11"/>
       <c r="D279" s="5">
         <v>1</v>
       </c>
@@ -24859,7 +24854,7 @@
       </c>
     </row>
     <row r="280" spans="3:25">
-      <c r="C280" s="10"/>
+      <c r="C280" s="11"/>
       <c r="D280" s="5">
         <v>1</v>
       </c>
@@ -24921,7 +24916,7 @@
       </c>
     </row>
     <row r="281" spans="3:25">
-      <c r="C281" s="10"/>
+      <c r="C281" s="11"/>
       <c r="D281" s="5">
         <v>1</v>
       </c>
@@ -24983,7 +24978,7 @@
       </c>
     </row>
     <row r="282" spans="3:25">
-      <c r="C282" s="10"/>
+      <c r="C282" s="11"/>
       <c r="D282" s="5">
         <v>1</v>
       </c>
@@ -25045,7 +25040,7 @@
       </c>
     </row>
     <row r="283" spans="3:25">
-      <c r="C283" s="10"/>
+      <c r="C283" s="11"/>
       <c r="D283" s="5">
         <v>1</v>
       </c>
@@ -25107,7 +25102,7 @@
       </c>
     </row>
     <row r="284" spans="3:25">
-      <c r="C284" s="10"/>
+      <c r="C284" s="11"/>
       <c r="D284" s="5">
         <v>1</v>
       </c>
@@ -25169,7 +25164,7 @@
       </c>
     </row>
     <row r="285" spans="3:25">
-      <c r="C285" s="10"/>
+      <c r="C285" s="11"/>
       <c r="D285" s="5">
         <v>1</v>
       </c>
@@ -25231,7 +25226,7 @@
       </c>
     </row>
     <row r="286" spans="3:25">
-      <c r="C286" s="10"/>
+      <c r="C286" s="11"/>
       <c r="D286" s="5">
         <v>1</v>
       </c>
@@ -25293,7 +25288,7 @@
       </c>
     </row>
     <row r="287" spans="3:25">
-      <c r="C287" s="10"/>
+      <c r="C287" s="11"/>
       <c r="D287" s="5">
         <v>1</v>
       </c>
@@ -25355,7 +25350,7 @@
       </c>
     </row>
     <row r="288" spans="3:25">
-      <c r="C288" s="10"/>
+      <c r="C288" s="11"/>
       <c r="D288" s="5">
         <v>1</v>
       </c>
@@ -25417,7 +25412,7 @@
       </c>
     </row>
     <row r="289" spans="3:25">
-      <c r="C289" s="10"/>
+      <c r="C289" s="11"/>
       <c r="D289" s="5">
         <v>1</v>
       </c>
@@ -25479,7 +25474,7 @@
       </c>
     </row>
     <row r="290" spans="3:25">
-      <c r="C290" s="10"/>
+      <c r="C290" s="11"/>
       <c r="D290" s="5">
         <v>1</v>
       </c>
@@ -25541,7 +25536,7 @@
       </c>
     </row>
     <row r="291" spans="3:25">
-      <c r="C291" s="10"/>
+      <c r="C291" s="11"/>
       <c r="D291" s="5">
         <v>1</v>
       </c>
@@ -25603,7 +25598,7 @@
       </c>
     </row>
     <row r="292" spans="3:25">
-      <c r="C292" s="10"/>
+      <c r="C292" s="11"/>
       <c r="D292" s="5">
         <v>1</v>
       </c>
@@ -25665,7 +25660,7 @@
       </c>
     </row>
     <row r="293" spans="3:25">
-      <c r="C293" s="10"/>
+      <c r="C293" s="11"/>
       <c r="D293" s="5">
         <v>1</v>
       </c>
@@ -25727,7 +25722,7 @@
       </c>
     </row>
     <row r="294" spans="3:25">
-      <c r="C294" s="10"/>
+      <c r="C294" s="11"/>
       <c r="D294" s="5">
         <v>1</v>
       </c>
@@ -25789,7 +25784,7 @@
       </c>
     </row>
     <row r="295" spans="3:25">
-      <c r="C295" s="10"/>
+      <c r="C295" s="11"/>
       <c r="D295" s="5">
         <v>1</v>
       </c>
@@ -25851,7 +25846,7 @@
       </c>
     </row>
     <row r="296" spans="3:25">
-      <c r="C296" s="10"/>
+      <c r="C296" s="11"/>
       <c r="D296" s="5">
         <v>1</v>
       </c>
@@ -25913,7 +25908,7 @@
       </c>
     </row>
     <row r="297" spans="3:25">
-      <c r="C297" s="10"/>
+      <c r="C297" s="11"/>
       <c r="D297" s="5">
         <v>1</v>
       </c>
@@ -25975,7 +25970,7 @@
       </c>
     </row>
     <row r="298" spans="3:25">
-      <c r="C298" s="10"/>
+      <c r="C298" s="11"/>
       <c r="D298" s="5">
         <v>1</v>
       </c>
@@ -26037,7 +26032,7 @@
       </c>
     </row>
     <row r="299" spans="3:25">
-      <c r="C299" s="10"/>
+      <c r="C299" s="11"/>
       <c r="D299" s="5">
         <v>1</v>
       </c>
@@ -26121,8 +26116,8 @@
       <c r="Y300" s="9"/>
     </row>
     <row r="301" spans="3:25">
-      <c r="C301" s="10" t="s">
-        <v>142</v>
+      <c r="C301" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D301" s="5">
         <v>1</v>
@@ -26185,7 +26180,7 @@
       </c>
     </row>
     <row r="302" spans="3:25">
-      <c r="C302" s="10"/>
+      <c r="C302" s="11"/>
       <c r="D302" s="5">
         <v>1</v>
       </c>
@@ -26247,7 +26242,7 @@
       </c>
     </row>
     <row r="303" spans="3:25">
-      <c r="C303" s="10"/>
+      <c r="C303" s="11"/>
       <c r="D303" s="5">
         <v>1</v>
       </c>
@@ -26309,7 +26304,7 @@
       </c>
     </row>
     <row r="304" spans="3:25">
-      <c r="C304" s="10"/>
+      <c r="C304" s="11"/>
       <c r="D304" s="5">
         <v>1</v>
       </c>
@@ -26371,7 +26366,7 @@
       </c>
     </row>
     <row r="305" spans="3:25">
-      <c r="C305" s="10"/>
+      <c r="C305" s="11"/>
       <c r="D305" s="5">
         <v>1</v>
       </c>
@@ -26433,7 +26428,7 @@
       </c>
     </row>
     <row r="306" spans="3:25">
-      <c r="C306" s="10"/>
+      <c r="C306" s="11"/>
       <c r="D306" s="5">
         <v>1</v>
       </c>
@@ -26495,7 +26490,7 @@
       </c>
     </row>
     <row r="307" spans="3:25">
-      <c r="C307" s="10"/>
+      <c r="C307" s="11"/>
       <c r="D307" s="5">
         <v>1</v>
       </c>
@@ -26557,7 +26552,7 @@
       </c>
     </row>
     <row r="308" spans="3:25">
-      <c r="C308" s="10"/>
+      <c r="C308" s="11"/>
       <c r="D308" s="5">
         <v>1</v>
       </c>
@@ -26619,7 +26614,7 @@
       </c>
     </row>
     <row r="309" spans="3:25">
-      <c r="C309" s="10"/>
+      <c r="C309" s="11"/>
       <c r="D309" s="5">
         <v>1</v>
       </c>
@@ -26681,7 +26676,7 @@
       </c>
     </row>
     <row r="310" spans="3:25">
-      <c r="C310" s="10"/>
+      <c r="C310" s="11"/>
       <c r="D310" s="5">
         <v>1</v>
       </c>
@@ -26743,7 +26738,7 @@
       </c>
     </row>
     <row r="311" spans="3:25">
-      <c r="C311" s="10"/>
+      <c r="C311" s="11"/>
       <c r="D311" s="5">
         <v>1</v>
       </c>
@@ -26805,7 +26800,7 @@
       </c>
     </row>
     <row r="312" spans="3:25">
-      <c r="C312" s="10"/>
+      <c r="C312" s="11"/>
       <c r="D312" s="5">
         <v>1</v>
       </c>
@@ -26867,7 +26862,7 @@
       </c>
     </row>
     <row r="313" spans="3:25">
-      <c r="C313" s="10"/>
+      <c r="C313" s="11"/>
       <c r="D313" s="5">
         <v>1</v>
       </c>
@@ -26929,7 +26924,7 @@
       </c>
     </row>
     <row r="314" spans="3:25">
-      <c r="C314" s="10"/>
+      <c r="C314" s="11"/>
       <c r="D314" s="5">
         <v>1</v>
       </c>
@@ -26991,7 +26986,7 @@
       </c>
     </row>
     <row r="315" spans="3:25">
-      <c r="C315" s="10"/>
+      <c r="C315" s="11"/>
       <c r="D315" s="5">
         <v>1</v>
       </c>
@@ -27053,7 +27048,7 @@
       </c>
     </row>
     <row r="316" spans="3:25">
-      <c r="C316" s="10"/>
+      <c r="C316" s="11"/>
       <c r="D316" s="5">
         <v>1</v>
       </c>
@@ -27115,7 +27110,7 @@
       </c>
     </row>
     <row r="317" spans="3:25">
-      <c r="C317" s="10"/>
+      <c r="C317" s="11"/>
       <c r="D317" s="5">
         <v>1</v>
       </c>
@@ -27177,7 +27172,7 @@
       </c>
     </row>
     <row r="318" spans="3:25">
-      <c r="C318" s="10"/>
+      <c r="C318" s="11"/>
       <c r="D318" s="5">
         <v>1</v>
       </c>
@@ -27239,7 +27234,7 @@
       </c>
     </row>
     <row r="319" spans="3:25">
-      <c r="C319" s="10"/>
+      <c r="C319" s="11"/>
       <c r="D319" s="5">
         <v>1</v>
       </c>
@@ -27301,7 +27296,7 @@
       </c>
     </row>
     <row r="320" spans="3:25">
-      <c r="C320" s="10"/>
+      <c r="C320" s="11"/>
       <c r="D320" s="5">
         <v>1</v>
       </c>
@@ -27363,7 +27358,7 @@
       </c>
     </row>
     <row r="321" spans="3:25">
-      <c r="C321" s="10"/>
+      <c r="C321" s="11"/>
       <c r="D321" s="5">
         <v>1</v>
       </c>
@@ -27425,7 +27420,7 @@
       </c>
     </row>
     <row r="322" spans="3:25">
-      <c r="C322" s="10"/>
+      <c r="C322" s="11"/>
       <c r="D322" s="5">
         <v>1</v>
       </c>
@@ -27487,7 +27482,7 @@
       </c>
     </row>
     <row r="323" spans="3:25">
-      <c r="C323" s="10"/>
+      <c r="C323" s="11"/>
       <c r="D323" s="5">
         <v>1</v>
       </c>
@@ -27549,7 +27544,7 @@
       </c>
     </row>
     <row r="324" spans="3:25">
-      <c r="C324" s="10"/>
+      <c r="C324" s="11"/>
       <c r="D324" s="5">
         <v>1</v>
       </c>
@@ -27611,7 +27606,7 @@
       </c>
     </row>
     <row r="325" spans="3:25">
-      <c r="C325" s="10"/>
+      <c r="C325" s="11"/>
       <c r="D325" s="5">
         <v>1</v>
       </c>
@@ -27673,7 +27668,7 @@
       </c>
     </row>
     <row r="326" spans="3:25">
-      <c r="C326" s="10"/>
+      <c r="C326" s="11"/>
       <c r="D326" s="5">
         <v>1</v>
       </c>
@@ -27735,7 +27730,7 @@
       </c>
     </row>
     <row r="327" spans="3:25">
-      <c r="C327" s="10"/>
+      <c r="C327" s="11"/>
       <c r="D327" s="5">
         <v>1</v>
       </c>
@@ -27797,7 +27792,7 @@
       </c>
     </row>
     <row r="328" spans="3:25">
-      <c r="C328" s="10"/>
+      <c r="C328" s="11"/>
       <c r="D328" s="5">
         <v>1</v>
       </c>
@@ -27859,7 +27854,7 @@
       </c>
     </row>
     <row r="329" spans="3:25">
-      <c r="C329" s="10"/>
+      <c r="C329" s="11"/>
       <c r="D329" s="5">
         <v>1</v>
       </c>
@@ -27921,7 +27916,7 @@
       </c>
     </row>
     <row r="330" spans="3:25">
-      <c r="C330" s="10"/>
+      <c r="C330" s="11"/>
       <c r="D330" s="5">
         <v>1</v>
       </c>
@@ -27983,7 +27978,7 @@
       </c>
     </row>
     <row r="331" spans="3:25">
-      <c r="C331" s="10"/>
+      <c r="C331" s="11"/>
       <c r="D331" s="5">
         <v>1</v>
       </c>
@@ -28045,7 +28040,7 @@
       </c>
     </row>
     <row r="332" spans="3:25">
-      <c r="C332" s="10"/>
+      <c r="C332" s="11"/>
       <c r="D332" s="5">
         <v>1</v>
       </c>
@@ -28129,8 +28124,8 @@
       <c r="Y333" s="9"/>
     </row>
     <row r="334" spans="3:25">
-      <c r="C334" s="10" t="s">
-        <v>143</v>
+      <c r="C334" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="D334" s="5">
         <v>1</v>
@@ -28193,7 +28188,7 @@
       </c>
     </row>
     <row r="335" spans="3:25">
-      <c r="C335" s="10"/>
+      <c r="C335" s="11"/>
       <c r="D335" s="5">
         <v>1</v>
       </c>
@@ -28255,7 +28250,7 @@
       </c>
     </row>
     <row r="336" spans="3:25">
-      <c r="C336" s="10"/>
+      <c r="C336" s="11"/>
       <c r="D336" s="5">
         <v>1</v>
       </c>
@@ -28317,7 +28312,7 @@
       </c>
     </row>
     <row r="337" spans="3:25">
-      <c r="C337" s="10"/>
+      <c r="C337" s="11"/>
       <c r="D337" s="5">
         <v>1</v>
       </c>
@@ -28379,7 +28374,7 @@
       </c>
     </row>
     <row r="338" spans="3:25">
-      <c r="C338" s="10"/>
+      <c r="C338" s="11"/>
       <c r="D338" s="5">
         <v>1</v>
       </c>
@@ -28441,7 +28436,7 @@
       </c>
     </row>
     <row r="339" spans="3:25">
-      <c r="C339" s="10"/>
+      <c r="C339" s="11"/>
       <c r="D339" s="5">
         <v>1</v>
       </c>
@@ -28503,7 +28498,7 @@
       </c>
     </row>
     <row r="340" spans="3:25">
-      <c r="C340" s="10"/>
+      <c r="C340" s="11"/>
       <c r="D340" s="5">
         <v>1</v>
       </c>
@@ -28565,7 +28560,7 @@
       </c>
     </row>
     <row r="341" spans="3:25">
-      <c r="C341" s="10"/>
+      <c r="C341" s="11"/>
       <c r="D341" s="5">
         <v>1</v>
       </c>
@@ -28627,7 +28622,7 @@
       </c>
     </row>
     <row r="342" spans="3:25">
-      <c r="C342" s="10"/>
+      <c r="C342" s="11"/>
       <c r="D342" s="5">
         <v>1</v>
       </c>
@@ -28689,7 +28684,7 @@
       </c>
     </row>
     <row r="343" spans="3:25">
-      <c r="C343" s="10"/>
+      <c r="C343" s="11"/>
       <c r="D343" s="5">
         <v>1</v>
       </c>
@@ -28751,7 +28746,7 @@
       </c>
     </row>
     <row r="344" spans="3:25">
-      <c r="C344" s="10"/>
+      <c r="C344" s="11"/>
       <c r="D344" s="5">
         <v>1</v>
       </c>
@@ -28813,7 +28808,7 @@
       </c>
     </row>
     <row r="345" spans="3:25">
-      <c r="C345" s="10"/>
+      <c r="C345" s="11"/>
       <c r="D345" s="5">
         <v>1</v>
       </c>
@@ -28875,7 +28870,7 @@
       </c>
     </row>
     <row r="346" spans="3:25">
-      <c r="C346" s="10"/>
+      <c r="C346" s="11"/>
       <c r="D346" s="5">
         <v>1</v>
       </c>
@@ -28937,7 +28932,7 @@
       </c>
     </row>
     <row r="347" spans="3:25">
-      <c r="C347" s="10"/>
+      <c r="C347" s="11"/>
       <c r="D347" s="5">
         <v>1</v>
       </c>
@@ -28999,7 +28994,7 @@
       </c>
     </row>
     <row r="348" spans="3:25">
-      <c r="C348" s="10"/>
+      <c r="C348" s="11"/>
       <c r="D348" s="5">
         <v>1</v>
       </c>
@@ -29061,7 +29056,7 @@
       </c>
     </row>
     <row r="349" spans="3:25">
-      <c r="C349" s="10"/>
+      <c r="C349" s="11"/>
       <c r="D349" s="5">
         <v>1</v>
       </c>
@@ -29123,7 +29118,7 @@
       </c>
     </row>
     <row r="350" spans="3:25">
-      <c r="C350" s="10"/>
+      <c r="C350" s="11"/>
       <c r="D350" s="5">
         <v>1</v>
       </c>
@@ -29185,7 +29180,7 @@
       </c>
     </row>
     <row r="351" spans="3:25">
-      <c r="C351" s="10"/>
+      <c r="C351" s="11"/>
       <c r="D351" s="5">
         <v>1</v>
       </c>
@@ -29247,7 +29242,7 @@
       </c>
     </row>
     <row r="352" spans="3:25">
-      <c r="C352" s="10"/>
+      <c r="C352" s="11"/>
       <c r="D352" s="5">
         <v>1</v>
       </c>
@@ -29309,7 +29304,7 @@
       </c>
     </row>
     <row r="353" spans="3:25">
-      <c r="C353" s="10"/>
+      <c r="C353" s="11"/>
       <c r="D353" s="5">
         <v>1</v>
       </c>
@@ -29371,7 +29366,7 @@
       </c>
     </row>
     <row r="354" spans="3:25">
-      <c r="C354" s="10"/>
+      <c r="C354" s="11"/>
       <c r="D354" s="5">
         <v>1</v>
       </c>
@@ -29433,7 +29428,7 @@
       </c>
     </row>
     <row r="355" spans="3:25">
-      <c r="C355" s="10"/>
+      <c r="C355" s="11"/>
       <c r="D355" s="5">
         <v>1</v>
       </c>
@@ -29495,7 +29490,7 @@
       </c>
     </row>
     <row r="356" spans="3:25">
-      <c r="C356" s="10"/>
+      <c r="C356" s="11"/>
       <c r="D356" s="5">
         <v>1</v>
       </c>
@@ -29557,7 +29552,7 @@
       </c>
     </row>
     <row r="357" spans="3:25">
-      <c r="C357" s="10"/>
+      <c r="C357" s="11"/>
       <c r="D357" s="5">
         <v>1</v>
       </c>
@@ -29619,7 +29614,7 @@
       </c>
     </row>
     <row r="358" spans="3:25">
-      <c r="C358" s="10"/>
+      <c r="C358" s="11"/>
       <c r="D358" s="5">
         <v>1</v>
       </c>
@@ -29681,7 +29676,7 @@
       </c>
     </row>
     <row r="359" spans="3:25">
-      <c r="C359" s="10"/>
+      <c r="C359" s="11"/>
       <c r="D359" s="5">
         <v>1</v>
       </c>
@@ -29743,7 +29738,7 @@
       </c>
     </row>
     <row r="360" spans="3:25">
-      <c r="C360" s="10"/>
+      <c r="C360" s="11"/>
       <c r="D360" s="5">
         <v>1</v>
       </c>
@@ -29805,7 +29800,7 @@
       </c>
     </row>
     <row r="361" spans="3:25">
-      <c r="C361" s="10"/>
+      <c r="C361" s="11"/>
       <c r="D361" s="5">
         <v>1</v>
       </c>
@@ -29867,7 +29862,7 @@
       </c>
     </row>
     <row r="362" spans="3:25">
-      <c r="C362" s="10"/>
+      <c r="C362" s="11"/>
       <c r="D362" s="5">
         <v>1</v>
       </c>
@@ -29929,7 +29924,7 @@
       </c>
     </row>
     <row r="363" spans="3:25">
-      <c r="C363" s="10"/>
+      <c r="C363" s="11"/>
       <c r="D363" s="5">
         <v>1</v>
       </c>
@@ -29991,7 +29986,7 @@
       </c>
     </row>
     <row r="364" spans="3:25">
-      <c r="C364" s="10"/>
+      <c r="C364" s="11"/>
       <c r="D364" s="5">
         <v>1</v>
       </c>
@@ -30053,7 +30048,7 @@
       </c>
     </row>
     <row r="365" spans="3:25">
-      <c r="C365" s="10"/>
+      <c r="C365" s="11"/>
       <c r="D365" s="5">
         <v>1</v>
       </c>
@@ -30137,8 +30132,8 @@
       <c r="Y366" s="9"/>
     </row>
     <row r="367" spans="3:25">
-      <c r="C367" s="10" t="s">
-        <v>144</v>
+      <c r="C367" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="D367" s="5">
         <v>1</v>
@@ -30201,7 +30196,7 @@
       </c>
     </row>
     <row r="368" spans="3:25">
-      <c r="C368" s="10"/>
+      <c r="C368" s="11"/>
       <c r="D368" s="5">
         <v>1</v>
       </c>
@@ -30263,7 +30258,7 @@
       </c>
     </row>
     <row r="369" spans="3:25">
-      <c r="C369" s="10"/>
+      <c r="C369" s="11"/>
       <c r="D369" s="5">
         <v>1</v>
       </c>
@@ -30325,7 +30320,7 @@
       </c>
     </row>
     <row r="370" spans="3:25">
-      <c r="C370" s="10"/>
+      <c r="C370" s="11"/>
       <c r="D370" s="5">
         <v>1</v>
       </c>
@@ -30387,7 +30382,7 @@
       </c>
     </row>
     <row r="371" spans="3:25">
-      <c r="C371" s="10"/>
+      <c r="C371" s="11"/>
       <c r="D371" s="5">
         <v>1</v>
       </c>
@@ -30449,7 +30444,7 @@
       </c>
     </row>
     <row r="372" spans="3:25">
-      <c r="C372" s="10"/>
+      <c r="C372" s="11"/>
       <c r="D372" s="5">
         <v>1</v>
       </c>
@@ -30511,7 +30506,7 @@
       </c>
     </row>
     <row r="373" spans="3:25">
-      <c r="C373" s="10"/>
+      <c r="C373" s="11"/>
       <c r="D373" s="5">
         <v>1</v>
       </c>
@@ -30573,7 +30568,7 @@
       </c>
     </row>
     <row r="374" spans="3:25">
-      <c r="C374" s="10"/>
+      <c r="C374" s="11"/>
       <c r="D374" s="5">
         <v>1</v>
       </c>
@@ -30635,7 +30630,7 @@
       </c>
     </row>
     <row r="375" spans="3:25">
-      <c r="C375" s="10"/>
+      <c r="C375" s="11"/>
       <c r="D375" s="5">
         <v>1</v>
       </c>
@@ -30697,7 +30692,7 @@
       </c>
     </row>
     <row r="376" spans="3:25">
-      <c r="C376" s="10"/>
+      <c r="C376" s="11"/>
       <c r="D376" s="5">
         <v>1</v>
       </c>
@@ -30759,7 +30754,7 @@
       </c>
     </row>
     <row r="377" spans="3:25">
-      <c r="C377" s="10"/>
+      <c r="C377" s="11"/>
       <c r="D377" s="5">
         <v>1</v>
       </c>
@@ -30821,7 +30816,7 @@
       </c>
     </row>
     <row r="378" spans="3:25">
-      <c r="C378" s="10"/>
+      <c r="C378" s="11"/>
       <c r="D378" s="5">
         <v>1</v>
       </c>
@@ -30883,7 +30878,7 @@
       </c>
     </row>
     <row r="379" spans="3:25">
-      <c r="C379" s="10"/>
+      <c r="C379" s="11"/>
       <c r="D379" s="5">
         <v>1</v>
       </c>
@@ -30945,7 +30940,7 @@
       </c>
     </row>
     <row r="380" spans="3:25">
-      <c r="C380" s="10"/>
+      <c r="C380" s="11"/>
       <c r="D380" s="5">
         <v>1</v>
       </c>
@@ -31007,7 +31002,7 @@
       </c>
     </row>
     <row r="381" spans="3:25">
-      <c r="C381" s="10"/>
+      <c r="C381" s="11"/>
       <c r="D381" s="5">
         <v>1</v>
       </c>
@@ -31069,7 +31064,7 @@
       </c>
     </row>
     <row r="382" spans="3:25">
-      <c r="C382" s="10"/>
+      <c r="C382" s="11"/>
       <c r="D382" s="5">
         <v>1</v>
       </c>
@@ -31131,7 +31126,7 @@
       </c>
     </row>
     <row r="383" spans="3:25">
-      <c r="C383" s="10"/>
+      <c r="C383" s="11"/>
       <c r="D383" s="5">
         <v>1</v>
       </c>
@@ -31193,7 +31188,7 @@
       </c>
     </row>
     <row r="384" spans="3:25">
-      <c r="C384" s="10"/>
+      <c r="C384" s="11"/>
       <c r="D384" s="5">
         <v>1</v>
       </c>
@@ -31255,7 +31250,7 @@
       </c>
     </row>
     <row r="385" spans="3:25">
-      <c r="C385" s="10"/>
+      <c r="C385" s="11"/>
       <c r="D385" s="5">
         <v>1</v>
       </c>
@@ -31317,7 +31312,7 @@
       </c>
     </row>
     <row r="386" spans="3:25">
-      <c r="C386" s="10"/>
+      <c r="C386" s="11"/>
       <c r="D386" s="5">
         <v>1</v>
       </c>
@@ -31379,7 +31374,7 @@
       </c>
     </row>
     <row r="387" spans="3:25">
-      <c r="C387" s="10"/>
+      <c r="C387" s="11"/>
       <c r="D387" s="5">
         <v>1</v>
       </c>
@@ -31441,7 +31436,7 @@
       </c>
     </row>
     <row r="388" spans="3:25">
-      <c r="C388" s="10"/>
+      <c r="C388" s="11"/>
       <c r="D388" s="5">
         <v>1</v>
       </c>
@@ -31503,7 +31498,7 @@
       </c>
     </row>
     <row r="389" spans="3:25">
-      <c r="C389" s="10"/>
+      <c r="C389" s="11"/>
       <c r="D389" s="5">
         <v>1</v>
       </c>
@@ -31565,7 +31560,7 @@
       </c>
     </row>
     <row r="390" spans="3:25">
-      <c r="C390" s="10"/>
+      <c r="C390" s="11"/>
       <c r="D390" s="5">
         <v>1</v>
       </c>
@@ -31627,7 +31622,7 @@
       </c>
     </row>
     <row r="391" spans="3:25">
-      <c r="C391" s="10"/>
+      <c r="C391" s="11"/>
       <c r="D391" s="5">
         <v>1</v>
       </c>
@@ -31689,7 +31684,7 @@
       </c>
     </row>
     <row r="392" spans="3:25">
-      <c r="C392" s="10"/>
+      <c r="C392" s="11"/>
       <c r="D392" s="5">
         <v>1</v>
       </c>
@@ -31751,7 +31746,7 @@
       </c>
     </row>
     <row r="393" spans="3:25">
-      <c r="C393" s="10"/>
+      <c r="C393" s="11"/>
       <c r="D393" s="5">
         <v>1</v>
       </c>
@@ -31813,7 +31808,7 @@
       </c>
     </row>
     <row r="394" spans="3:25">
-      <c r="C394" s="10"/>
+      <c r="C394" s="11"/>
       <c r="D394" s="5">
         <v>1</v>
       </c>
@@ -31875,7 +31870,7 @@
       </c>
     </row>
     <row r="395" spans="3:25">
-      <c r="C395" s="10"/>
+      <c r="C395" s="11"/>
       <c r="D395" s="5">
         <v>1</v>
       </c>
@@ -31937,7 +31932,7 @@
       </c>
     </row>
     <row r="396" spans="3:25">
-      <c r="C396" s="10"/>
+      <c r="C396" s="11"/>
       <c r="D396" s="5">
         <v>1</v>
       </c>
@@ -31999,7 +31994,7 @@
       </c>
     </row>
     <row r="397" spans="3:25">
-      <c r="C397" s="10"/>
+      <c r="C397" s="11"/>
       <c r="D397" s="5">
         <v>1</v>
       </c>
@@ -32061,7 +32056,7 @@
       </c>
     </row>
     <row r="398" spans="3:25">
-      <c r="C398" s="10"/>
+      <c r="C398" s="11"/>
       <c r="D398" s="5">
         <v>1</v>
       </c>
@@ -32145,8 +32140,8 @@
       <c r="Y399" s="9"/>
     </row>
     <row r="400" spans="3:25">
-      <c r="C400" s="10" t="s">
-        <v>148</v>
+      <c r="C400" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D400" s="5">
         <v>1</v>
@@ -32192,7 +32187,7 @@
         <v>0</v>
       </c>
       <c r="T400" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U400" s="9">
         <v>0</v>
@@ -32205,11 +32200,11 @@
       </c>
       <c r="Y400" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="401" spans="3:25">
-      <c r="C401" s="10"/>
+      <c r="C401" s="11"/>
       <c r="D401" s="5">
         <v>1</v>
       </c>
@@ -32253,8 +32248,8 @@
       <c r="S401" s="9">
         <v>0</v>
       </c>
-      <c r="T401" s="9">
-        <v>0</v>
+      <c r="T401" s="10">
+        <v>1</v>
       </c>
       <c r="U401" s="9">
         <v>0</v>
@@ -32267,11 +32262,11 @@
       </c>
       <c r="Y401" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="402" spans="3:25">
-      <c r="C402" s="10"/>
+      <c r="C402" s="11"/>
       <c r="D402" s="5">
         <v>1</v>
       </c>
@@ -32315,8 +32310,8 @@
       <c r="S402" s="9">
         <v>0</v>
       </c>
-      <c r="T402" s="9">
-        <v>0</v>
+      <c r="T402" s="10">
+        <v>1</v>
       </c>
       <c r="U402" s="9">
         <v>0</v>
@@ -32329,11 +32324,11 @@
       </c>
       <c r="Y402" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="403" spans="3:25">
-      <c r="C403" s="10"/>
+      <c r="C403" s="11"/>
       <c r="D403" s="5">
         <v>1</v>
       </c>
@@ -32377,8 +32372,8 @@
       <c r="S403" s="9">
         <v>0</v>
       </c>
-      <c r="T403" s="9">
-        <v>0</v>
+      <c r="T403" s="10">
+        <v>1</v>
       </c>
       <c r="U403" s="9">
         <v>0</v>
@@ -32391,11 +32386,11 @@
       </c>
       <c r="Y403" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="404" spans="3:25">
-      <c r="C404" s="10"/>
+      <c r="C404" s="11"/>
       <c r="D404" s="5">
         <v>1</v>
       </c>
@@ -32439,8 +32434,8 @@
       <c r="S404" s="9">
         <v>0</v>
       </c>
-      <c r="T404" s="9">
-        <v>0</v>
+      <c r="T404" s="10">
+        <v>1</v>
       </c>
       <c r="U404" s="9">
         <v>0</v>
@@ -32453,11 +32448,11 @@
       </c>
       <c r="Y404" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="405" spans="3:25">
-      <c r="C405" s="10"/>
+      <c r="C405" s="11"/>
       <c r="D405" s="5">
         <v>1</v>
       </c>
@@ -32501,8 +32496,8 @@
       <c r="S405" s="9">
         <v>0</v>
       </c>
-      <c r="T405" s="9">
-        <v>0</v>
+      <c r="T405" s="10">
+        <v>1</v>
       </c>
       <c r="U405" s="9">
         <v>0</v>
@@ -32515,11 +32510,11 @@
       </c>
       <c r="Y405" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="406" spans="3:25">
-      <c r="C406" s="10"/>
+      <c r="C406" s="11"/>
       <c r="D406" s="5">
         <v>1</v>
       </c>
@@ -32563,8 +32558,8 @@
       <c r="S406" s="9">
         <v>0</v>
       </c>
-      <c r="T406" s="9">
-        <v>0</v>
+      <c r="T406" s="10">
+        <v>1</v>
       </c>
       <c r="U406" s="9">
         <v>0</v>
@@ -32577,11 +32572,11 @@
       </c>
       <c r="Y406" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>C0</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="407" spans="3:25">
-      <c r="C407" s="10"/>
+      <c r="C407" s="11"/>
       <c r="D407" s="5">
         <v>1</v>
       </c>
@@ -32625,8 +32620,8 @@
       <c r="S407" s="9">
         <v>0</v>
       </c>
-      <c r="T407" s="9">
-        <v>0</v>
+      <c r="T407" s="10">
+        <v>1</v>
       </c>
       <c r="U407" s="9">
         <v>0</v>
@@ -32639,11 +32634,11 @@
       </c>
       <c r="Y407" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>C0</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="408" spans="3:25">
-      <c r="C408" s="10"/>
+      <c r="C408" s="11"/>
       <c r="D408" s="5">
         <v>1</v>
       </c>
@@ -32687,8 +32682,8 @@
       <c r="S408" s="9">
         <v>0</v>
       </c>
-      <c r="T408" s="9">
-        <v>0</v>
+      <c r="T408" s="10">
+        <v>1</v>
       </c>
       <c r="U408" s="9">
         <v>0</v>
@@ -32701,11 +32696,11 @@
       </c>
       <c r="Y408" s="5" t="str">
         <f t="shared" ref="Y408:Y469" si="14">DEC2HEX((W408*1)+(V408*2)+(U408*4)+(T408*8)+(S408*16)+(R408*32)+(Q408*64)+(P408*128), 2)</f>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="409" spans="3:25">
-      <c r="C409" s="10"/>
+      <c r="C409" s="11"/>
       <c r="D409" s="5">
         <v>1</v>
       </c>
@@ -32749,8 +32744,8 @@
       <c r="S409" s="9">
         <v>0</v>
       </c>
-      <c r="T409" s="9">
-        <v>0</v>
+      <c r="T409" s="10">
+        <v>1</v>
       </c>
       <c r="U409" s="9">
         <v>0</v>
@@ -32763,11 +32758,11 @@
       </c>
       <c r="Y409" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="410" spans="3:25">
-      <c r="C410" s="10"/>
+      <c r="C410" s="11"/>
       <c r="D410" s="5">
         <v>1</v>
       </c>
@@ -32811,8 +32806,8 @@
       <c r="S410" s="9">
         <v>0</v>
       </c>
-      <c r="T410" s="9">
-        <v>0</v>
+      <c r="T410" s="10">
+        <v>1</v>
       </c>
       <c r="U410" s="9">
         <v>0</v>
@@ -32825,11 +32820,11 @@
       </c>
       <c r="Y410" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="411" spans="3:25">
-      <c r="C411" s="10"/>
+      <c r="C411" s="11"/>
       <c r="D411" s="5">
         <v>1</v>
       </c>
@@ -32873,8 +32868,8 @@
       <c r="S411" s="9">
         <v>0</v>
       </c>
-      <c r="T411" s="9">
-        <v>0</v>
+      <c r="T411" s="10">
+        <v>1</v>
       </c>
       <c r="U411" s="9">
         <v>0</v>
@@ -32887,11 +32882,11 @@
       </c>
       <c r="Y411" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="412" spans="3:25">
-      <c r="C412" s="10"/>
+      <c r="C412" s="11"/>
       <c r="D412" s="5">
         <v>1</v>
       </c>
@@ -32935,8 +32930,8 @@
       <c r="S412" s="9">
         <v>0</v>
       </c>
-      <c r="T412" s="9">
-        <v>0</v>
+      <c r="T412" s="10">
+        <v>1</v>
       </c>
       <c r="U412" s="9">
         <v>0</v>
@@ -32949,11 +32944,11 @@
       </c>
       <c r="Y412" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="413" spans="3:25">
-      <c r="C413" s="10"/>
+      <c r="C413" s="11"/>
       <c r="D413" s="5">
         <v>1</v>
       </c>
@@ -32997,8 +32992,8 @@
       <c r="S413" s="9">
         <v>0</v>
       </c>
-      <c r="T413" s="9">
-        <v>0</v>
+      <c r="T413" s="10">
+        <v>1</v>
       </c>
       <c r="U413" s="9">
         <v>0</v>
@@ -33011,11 +33006,11 @@
       </c>
       <c r="Y413" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="414" spans="3:25">
-      <c r="C414" s="10"/>
+      <c r="C414" s="11"/>
       <c r="D414" s="5">
         <v>1</v>
       </c>
@@ -33059,8 +33054,8 @@
       <c r="S414" s="9">
         <v>0</v>
       </c>
-      <c r="T414" s="9">
-        <v>0</v>
+      <c r="T414" s="10">
+        <v>1</v>
       </c>
       <c r="U414" s="9">
         <v>0</v>
@@ -33073,11 +33068,11 @@
       </c>
       <c r="Y414" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C0</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="415" spans="3:25">
-      <c r="C415" s="10"/>
+      <c r="C415" s="11"/>
       <c r="D415" s="5">
         <v>1</v>
       </c>
@@ -33121,8 +33116,8 @@
       <c r="S415" s="9">
         <v>0</v>
       </c>
-      <c r="T415" s="9">
-        <v>0</v>
+      <c r="T415" s="10">
+        <v>1</v>
       </c>
       <c r="U415" s="9">
         <v>0</v>
@@ -33135,11 +33130,11 @@
       </c>
       <c r="Y415" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C0</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="416" spans="3:25">
-      <c r="C416" s="10"/>
+      <c r="C416" s="11"/>
       <c r="D416" s="5">
         <v>1</v>
       </c>
@@ -33183,8 +33178,8 @@
       <c r="S416" s="9">
         <v>0</v>
       </c>
-      <c r="T416" s="9">
-        <v>0</v>
+      <c r="T416" s="10">
+        <v>1</v>
       </c>
       <c r="U416" s="9">
         <v>0</v>
@@ -33197,11 +33192,11 @@
       </c>
       <c r="Y416" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="417" spans="3:25">
-      <c r="C417" s="10"/>
+      <c r="C417" s="11"/>
       <c r="D417" s="5">
         <v>1</v>
       </c>
@@ -33245,8 +33240,8 @@
       <c r="S417" s="9">
         <v>0</v>
       </c>
-      <c r="T417" s="9">
-        <v>0</v>
+      <c r="T417" s="10">
+        <v>1</v>
       </c>
       <c r="U417" s="9">
         <v>0</v>
@@ -33259,11 +33254,11 @@
       </c>
       <c r="Y417" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="418" spans="3:25">
-      <c r="C418" s="10"/>
+      <c r="C418" s="11"/>
       <c r="D418" s="5">
         <v>1</v>
       </c>
@@ -33307,8 +33302,8 @@
       <c r="S418" s="9">
         <v>0</v>
       </c>
-      <c r="T418" s="9">
-        <v>0</v>
+      <c r="T418" s="10">
+        <v>1</v>
       </c>
       <c r="U418" s="9">
         <v>0</v>
@@ -33321,11 +33316,11 @@
       </c>
       <c r="Y418" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="419" spans="3:25">
-      <c r="C419" s="10"/>
+      <c r="C419" s="11"/>
       <c r="D419" s="5">
         <v>1</v>
       </c>
@@ -33369,8 +33364,8 @@
       <c r="S419" s="9">
         <v>0</v>
       </c>
-      <c r="T419" s="9">
-        <v>0</v>
+      <c r="T419" s="10">
+        <v>1</v>
       </c>
       <c r="U419" s="9">
         <v>0</v>
@@ -33383,11 +33378,11 @@
       </c>
       <c r="Y419" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="420" spans="3:25">
-      <c r="C420" s="10"/>
+      <c r="C420" s="11"/>
       <c r="D420" s="5">
         <v>1</v>
       </c>
@@ -33431,8 +33426,8 @@
       <c r="S420" s="9">
         <v>0</v>
       </c>
-      <c r="T420" s="9">
-        <v>0</v>
+      <c r="T420" s="10">
+        <v>1</v>
       </c>
       <c r="U420" s="9">
         <v>0</v>
@@ -33445,11 +33440,11 @@
       </c>
       <c r="Y420" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="421" spans="3:25">
-      <c r="C421" s="10"/>
+      <c r="C421" s="11"/>
       <c r="D421" s="5">
         <v>1</v>
       </c>
@@ -33493,8 +33488,8 @@
       <c r="S421" s="9">
         <v>0</v>
       </c>
-      <c r="T421" s="9">
-        <v>0</v>
+      <c r="T421" s="10">
+        <v>1</v>
       </c>
       <c r="U421" s="9">
         <v>0</v>
@@ -33507,11 +33502,11 @@
       </c>
       <c r="Y421" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="422" spans="3:25">
-      <c r="C422" s="10"/>
+      <c r="C422" s="11"/>
       <c r="D422" s="5">
         <v>1</v>
       </c>
@@ -33555,8 +33550,8 @@
       <c r="S422" s="9">
         <v>0</v>
       </c>
-      <c r="T422" s="9">
-        <v>0</v>
+      <c r="T422" s="10">
+        <v>1</v>
       </c>
       <c r="U422" s="9">
         <v>0</v>
@@ -33569,11 +33564,11 @@
       </c>
       <c r="Y422" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C0</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="423" spans="3:25">
-      <c r="C423" s="10"/>
+      <c r="C423" s="11"/>
       <c r="D423" s="5">
         <v>1</v>
       </c>
@@ -33617,8 +33612,8 @@
       <c r="S423" s="9">
         <v>0</v>
       </c>
-      <c r="T423" s="9">
-        <v>0</v>
+      <c r="T423" s="10">
+        <v>1</v>
       </c>
       <c r="U423" s="9">
         <v>0</v>
@@ -33631,11 +33626,11 @@
       </c>
       <c r="Y423" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C0</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="424" spans="3:25">
-      <c r="C424" s="10"/>
+      <c r="C424" s="11"/>
       <c r="D424" s="5">
         <v>1</v>
       </c>
@@ -33679,8 +33674,8 @@
       <c r="S424" s="9">
         <v>0</v>
       </c>
-      <c r="T424" s="9">
-        <v>0</v>
+      <c r="T424" s="10">
+        <v>1</v>
       </c>
       <c r="U424" s="9">
         <v>0</v>
@@ -33693,11 +33688,11 @@
       </c>
       <c r="Y424" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="425" spans="3:25">
-      <c r="C425" s="10"/>
+      <c r="C425" s="11"/>
       <c r="D425" s="5">
         <v>1</v>
       </c>
@@ -33741,8 +33736,8 @@
       <c r="S425" s="9">
         <v>0</v>
       </c>
-      <c r="T425" s="9">
-        <v>0</v>
+      <c r="T425" s="10">
+        <v>1</v>
       </c>
       <c r="U425" s="9">
         <v>0</v>
@@ -33755,11 +33750,11 @@
       </c>
       <c r="Y425" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="426" spans="3:25">
-      <c r="C426" s="10"/>
+      <c r="C426" s="11"/>
       <c r="D426" s="5">
         <v>1</v>
       </c>
@@ -33803,8 +33798,8 @@
       <c r="S426" s="9">
         <v>0</v>
       </c>
-      <c r="T426" s="9">
-        <v>0</v>
+      <c r="T426" s="10">
+        <v>1</v>
       </c>
       <c r="U426" s="9">
         <v>0</v>
@@ -33817,11 +33812,11 @@
       </c>
       <c r="Y426" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="427" spans="3:25">
-      <c r="C427" s="10"/>
+      <c r="C427" s="11"/>
       <c r="D427" s="5">
         <v>1</v>
       </c>
@@ -33865,8 +33860,8 @@
       <c r="S427" s="9">
         <v>0</v>
       </c>
-      <c r="T427" s="9">
-        <v>0</v>
+      <c r="T427" s="10">
+        <v>1</v>
       </c>
       <c r="U427" s="9">
         <v>0</v>
@@ -33879,11 +33874,11 @@
       </c>
       <c r="Y427" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="428" spans="3:25">
-      <c r="C428" s="10"/>
+      <c r="C428" s="11"/>
       <c r="D428" s="5">
         <v>1</v>
       </c>
@@ -33927,8 +33922,8 @@
       <c r="S428" s="9">
         <v>0</v>
       </c>
-      <c r="T428" s="9">
-        <v>0</v>
+      <c r="T428" s="10">
+        <v>1</v>
       </c>
       <c r="U428" s="9">
         <v>0</v>
@@ -33941,11 +33936,11 @@
       </c>
       <c r="Y428" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="429" spans="3:25">
-      <c r="C429" s="10"/>
+      <c r="C429" s="11"/>
       <c r="D429" s="5">
         <v>1</v>
       </c>
@@ -33989,8 +33984,8 @@
       <c r="S429" s="9">
         <v>0</v>
       </c>
-      <c r="T429" s="9">
-        <v>0</v>
+      <c r="T429" s="10">
+        <v>1</v>
       </c>
       <c r="U429" s="9">
         <v>0</v>
@@ -34003,11 +33998,11 @@
       </c>
       <c r="Y429" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="430" spans="3:25">
-      <c r="C430" s="10"/>
+      <c r="C430" s="11"/>
       <c r="D430" s="5">
         <v>1</v>
       </c>
@@ -34051,8 +34046,8 @@
       <c r="S430" s="9">
         <v>0</v>
       </c>
-      <c r="T430" s="9">
-        <v>0</v>
+      <c r="T430" s="10">
+        <v>1</v>
       </c>
       <c r="U430" s="9">
         <v>0</v>
@@ -34065,11 +34060,11 @@
       </c>
       <c r="Y430" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C0</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="431" spans="3:25">
-      <c r="C431" s="10"/>
+      <c r="C431" s="11"/>
       <c r="D431" s="5">
         <v>1</v>
       </c>
@@ -34113,8 +34108,8 @@
       <c r="S431" s="9">
         <v>0</v>
       </c>
-      <c r="T431" s="9">
-        <v>0</v>
+      <c r="T431" s="10">
+        <v>1</v>
       </c>
       <c r="U431" s="9">
         <v>0</v>
@@ -34127,7 +34122,7 @@
       </c>
       <c r="Y431" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C0</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="432" spans="3:25">
@@ -34153,8 +34148,8 @@
       <c r="Y432" s="9"/>
     </row>
     <row r="433" spans="3:25">
-      <c r="C433" s="10" t="s">
-        <v>147</v>
+      <c r="C433" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D433" s="5">
         <v>1</v>
@@ -34200,7 +34195,7 @@
         <v>0</v>
       </c>
       <c r="T433" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U433" s="9">
         <v>0</v>
@@ -34213,11 +34208,11 @@
       </c>
       <c r="Y433" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="434" spans="3:25">
-      <c r="C434" s="10"/>
+      <c r="C434" s="11"/>
       <c r="D434" s="5">
         <v>1</v>
       </c>
@@ -34261,8 +34256,8 @@
       <c r="S434" s="9">
         <v>0</v>
       </c>
-      <c r="T434" s="9">
-        <v>1</v>
+      <c r="T434" s="10">
+        <v>0</v>
       </c>
       <c r="U434" s="9">
         <v>0</v>
@@ -34275,11 +34270,11 @@
       </c>
       <c r="Y434" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="435" spans="3:25">
-      <c r="C435" s="10"/>
+      <c r="C435" s="11"/>
       <c r="D435" s="5">
         <v>1</v>
       </c>
@@ -34323,8 +34318,8 @@
       <c r="S435" s="9">
         <v>0</v>
       </c>
-      <c r="T435" s="9">
-        <v>1</v>
+      <c r="T435" s="10">
+        <v>0</v>
       </c>
       <c r="U435" s="9">
         <v>0</v>
@@ -34337,11 +34332,11 @@
       </c>
       <c r="Y435" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="436" spans="3:25">
-      <c r="C436" s="10"/>
+      <c r="C436" s="11"/>
       <c r="D436" s="5">
         <v>1</v>
       </c>
@@ -34385,8 +34380,8 @@
       <c r="S436" s="9">
         <v>0</v>
       </c>
-      <c r="T436" s="9">
-        <v>1</v>
+      <c r="T436" s="10">
+        <v>0</v>
       </c>
       <c r="U436" s="9">
         <v>0</v>
@@ -34399,11 +34394,11 @@
       </c>
       <c r="Y436" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="437" spans="3:25">
-      <c r="C437" s="10"/>
+      <c r="C437" s="11"/>
       <c r="D437" s="5">
         <v>1</v>
       </c>
@@ -34447,8 +34442,8 @@
       <c r="S437" s="9">
         <v>0</v>
       </c>
-      <c r="T437" s="9">
-        <v>1</v>
+      <c r="T437" s="10">
+        <v>0</v>
       </c>
       <c r="U437" s="9">
         <v>0</v>
@@ -34461,11 +34456,11 @@
       </c>
       <c r="Y437" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="438" spans="3:25">
-      <c r="C438" s="10"/>
+      <c r="C438" s="11"/>
       <c r="D438" s="5">
         <v>1</v>
       </c>
@@ -34509,8 +34504,8 @@
       <c r="S438" s="9">
         <v>0</v>
       </c>
-      <c r="T438" s="9">
-        <v>1</v>
+      <c r="T438" s="10">
+        <v>0</v>
       </c>
       <c r="U438" s="9">
         <v>0</v>
@@ -34523,11 +34518,11 @@
       </c>
       <c r="Y438" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="439" spans="3:25">
-      <c r="C439" s="10"/>
+      <c r="C439" s="11"/>
       <c r="D439" s="5">
         <v>1</v>
       </c>
@@ -34571,8 +34566,8 @@
       <c r="S439" s="9">
         <v>0</v>
       </c>
-      <c r="T439" s="9">
-        <v>1</v>
+      <c r="T439" s="10">
+        <v>0</v>
       </c>
       <c r="U439" s="9">
         <v>0</v>
@@ -34585,11 +34580,11 @@
       </c>
       <c r="Y439" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C8</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="440" spans="3:25">
-      <c r="C440" s="10"/>
+      <c r="C440" s="11"/>
       <c r="D440" s="5">
         <v>1</v>
       </c>
@@ -34633,8 +34628,8 @@
       <c r="S440" s="9">
         <v>0</v>
       </c>
-      <c r="T440" s="9">
-        <v>1</v>
+      <c r="T440" s="10">
+        <v>0</v>
       </c>
       <c r="U440" s="9">
         <v>0</v>
@@ -34647,11 +34642,11 @@
       </c>
       <c r="Y440" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C8</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="441" spans="3:25">
-      <c r="C441" s="10"/>
+      <c r="C441" s="11"/>
       <c r="D441" s="5">
         <v>1</v>
       </c>
@@ -34695,8 +34690,8 @@
       <c r="S441" s="9">
         <v>0</v>
       </c>
-      <c r="T441" s="9">
-        <v>1</v>
+      <c r="T441" s="10">
+        <v>0</v>
       </c>
       <c r="U441" s="9">
         <v>0</v>
@@ -34709,11 +34704,11 @@
       </c>
       <c r="Y441" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="442" spans="3:25">
-      <c r="C442" s="10"/>
+      <c r="C442" s="11"/>
       <c r="D442" s="5">
         <v>1</v>
       </c>
@@ -34757,8 +34752,8 @@
       <c r="S442" s="9">
         <v>0</v>
       </c>
-      <c r="T442" s="9">
-        <v>1</v>
+      <c r="T442" s="10">
+        <v>0</v>
       </c>
       <c r="U442" s="9">
         <v>0</v>
@@ -34771,11 +34766,11 @@
       </c>
       <c r="Y442" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="443" spans="3:25">
-      <c r="C443" s="10"/>
+      <c r="C443" s="11"/>
       <c r="D443" s="5">
         <v>1</v>
       </c>
@@ -34819,8 +34814,8 @@
       <c r="S443" s="9">
         <v>0</v>
       </c>
-      <c r="T443" s="9">
-        <v>1</v>
+      <c r="T443" s="10">
+        <v>0</v>
       </c>
       <c r="U443" s="9">
         <v>0</v>
@@ -34833,11 +34828,11 @@
       </c>
       <c r="Y443" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="444" spans="3:25">
-      <c r="C444" s="10"/>
+      <c r="C444" s="11"/>
       <c r="D444" s="5">
         <v>1</v>
       </c>
@@ -34881,8 +34876,8 @@
       <c r="S444" s="9">
         <v>0</v>
       </c>
-      <c r="T444" s="9">
-        <v>1</v>
+      <c r="T444" s="10">
+        <v>0</v>
       </c>
       <c r="U444" s="9">
         <v>0</v>
@@ -34895,11 +34890,11 @@
       </c>
       <c r="Y444" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="445" spans="3:25">
-      <c r="C445" s="10"/>
+      <c r="C445" s="11"/>
       <c r="D445" s="5">
         <v>1</v>
       </c>
@@ -34943,8 +34938,8 @@
       <c r="S445" s="9">
         <v>0</v>
       </c>
-      <c r="T445" s="9">
-        <v>1</v>
+      <c r="T445" s="10">
+        <v>0</v>
       </c>
       <c r="U445" s="9">
         <v>0</v>
@@ -34957,11 +34952,11 @@
       </c>
       <c r="Y445" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="446" spans="3:25">
-      <c r="C446" s="10"/>
+      <c r="C446" s="11"/>
       <c r="D446" s="5">
         <v>1</v>
       </c>
@@ -35005,8 +35000,8 @@
       <c r="S446" s="9">
         <v>0</v>
       </c>
-      <c r="T446" s="9">
-        <v>1</v>
+      <c r="T446" s="10">
+        <v>0</v>
       </c>
       <c r="U446" s="9">
         <v>0</v>
@@ -35019,11 +35014,11 @@
       </c>
       <c r="Y446" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="447" spans="3:25">
-      <c r="C447" s="10"/>
+      <c r="C447" s="11"/>
       <c r="D447" s="5">
         <v>1</v>
       </c>
@@ -35067,8 +35062,8 @@
       <c r="S447" s="9">
         <v>0</v>
       </c>
-      <c r="T447" s="9">
-        <v>1</v>
+      <c r="T447" s="10">
+        <v>0</v>
       </c>
       <c r="U447" s="9">
         <v>0</v>
@@ -35081,11 +35076,11 @@
       </c>
       <c r="Y447" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C8</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="448" spans="3:25">
-      <c r="C448" s="10"/>
+      <c r="C448" s="11"/>
       <c r="D448" s="5">
         <v>1</v>
       </c>
@@ -35129,8 +35124,8 @@
       <c r="S448" s="9">
         <v>0</v>
       </c>
-      <c r="T448" s="9">
-        <v>1</v>
+      <c r="T448" s="10">
+        <v>0</v>
       </c>
       <c r="U448" s="9">
         <v>0</v>
@@ -35143,11 +35138,11 @@
       </c>
       <c r="Y448" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C8</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="449" spans="3:25">
-      <c r="C449" s="10"/>
+      <c r="C449" s="11"/>
       <c r="D449" s="5">
         <v>1</v>
       </c>
@@ -35191,8 +35186,8 @@
       <c r="S449" s="9">
         <v>0</v>
       </c>
-      <c r="T449" s="9">
-        <v>1</v>
+      <c r="T449" s="10">
+        <v>0</v>
       </c>
       <c r="U449" s="9">
         <v>0</v>
@@ -35205,11 +35200,11 @@
       </c>
       <c r="Y449" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="450" spans="3:25">
-      <c r="C450" s="10"/>
+      <c r="C450" s="11"/>
       <c r="D450" s="5">
         <v>1</v>
       </c>
@@ -35253,8 +35248,8 @@
       <c r="S450" s="9">
         <v>0</v>
       </c>
-      <c r="T450" s="9">
-        <v>1</v>
+      <c r="T450" s="10">
+        <v>0</v>
       </c>
       <c r="U450" s="9">
         <v>0</v>
@@ -35267,11 +35262,11 @@
       </c>
       <c r="Y450" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="451" spans="3:25">
-      <c r="C451" s="10"/>
+      <c r="C451" s="11"/>
       <c r="D451" s="5">
         <v>1</v>
       </c>
@@ -35315,8 +35310,8 @@
       <c r="S451" s="9">
         <v>0</v>
       </c>
-      <c r="T451" s="9">
-        <v>1</v>
+      <c r="T451" s="10">
+        <v>0</v>
       </c>
       <c r="U451" s="9">
         <v>0</v>
@@ -35329,11 +35324,11 @@
       </c>
       <c r="Y451" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="452" spans="3:25">
-      <c r="C452" s="10"/>
+      <c r="C452" s="11"/>
       <c r="D452" s="5">
         <v>1</v>
       </c>
@@ -35377,8 +35372,8 @@
       <c r="S452" s="9">
         <v>0</v>
       </c>
-      <c r="T452" s="9">
-        <v>1</v>
+      <c r="T452" s="10">
+        <v>0</v>
       </c>
       <c r="U452" s="9">
         <v>0</v>
@@ -35391,11 +35386,11 @@
       </c>
       <c r="Y452" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="453" spans="3:25">
-      <c r="C453" s="10"/>
+      <c r="C453" s="11"/>
       <c r="D453" s="5">
         <v>1</v>
       </c>
@@ -35439,8 +35434,8 @@
       <c r="S453" s="9">
         <v>0</v>
       </c>
-      <c r="T453" s="9">
-        <v>1</v>
+      <c r="T453" s="10">
+        <v>0</v>
       </c>
       <c r="U453" s="9">
         <v>0</v>
@@ -35453,11 +35448,11 @@
       </c>
       <c r="Y453" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="454" spans="3:25">
-      <c r="C454" s="10"/>
+      <c r="C454" s="11"/>
       <c r="D454" s="5">
         <v>1</v>
       </c>
@@ -35501,8 +35496,8 @@
       <c r="S454" s="9">
         <v>0</v>
       </c>
-      <c r="T454" s="9">
-        <v>1</v>
+      <c r="T454" s="10">
+        <v>0</v>
       </c>
       <c r="U454" s="9">
         <v>0</v>
@@ -35515,11 +35510,11 @@
       </c>
       <c r="Y454" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="455" spans="3:25">
-      <c r="C455" s="10"/>
+      <c r="C455" s="11"/>
       <c r="D455" s="5">
         <v>1</v>
       </c>
@@ -35563,8 +35558,8 @@
       <c r="S455" s="9">
         <v>0</v>
       </c>
-      <c r="T455" s="9">
-        <v>1</v>
+      <c r="T455" s="10">
+        <v>0</v>
       </c>
       <c r="U455" s="9">
         <v>0</v>
@@ -35577,11 +35572,11 @@
       </c>
       <c r="Y455" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C8</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="456" spans="3:25">
-      <c r="C456" s="10"/>
+      <c r="C456" s="11"/>
       <c r="D456" s="5">
         <v>1</v>
       </c>
@@ -35625,8 +35620,8 @@
       <c r="S456" s="9">
         <v>0</v>
       </c>
-      <c r="T456" s="9">
-        <v>1</v>
+      <c r="T456" s="10">
+        <v>0</v>
       </c>
       <c r="U456" s="9">
         <v>0</v>
@@ -35639,11 +35634,11 @@
       </c>
       <c r="Y456" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C8</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="457" spans="3:25">
-      <c r="C457" s="10"/>
+      <c r="C457" s="11"/>
       <c r="D457" s="5">
         <v>1</v>
       </c>
@@ -35687,8 +35682,8 @@
       <c r="S457" s="9">
         <v>0</v>
       </c>
-      <c r="T457" s="9">
-        <v>1</v>
+      <c r="T457" s="10">
+        <v>0</v>
       </c>
       <c r="U457" s="9">
         <v>0</v>
@@ -35701,11 +35696,11 @@
       </c>
       <c r="Y457" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="458" spans="3:25">
-      <c r="C458" s="10"/>
+      <c r="C458" s="11"/>
       <c r="D458" s="5">
         <v>1</v>
       </c>
@@ -35749,8 +35744,8 @@
       <c r="S458" s="9">
         <v>0</v>
       </c>
-      <c r="T458" s="9">
-        <v>1</v>
+      <c r="T458" s="10">
+        <v>0</v>
       </c>
       <c r="U458" s="9">
         <v>0</v>
@@ -35763,11 +35758,11 @@
       </c>
       <c r="Y458" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="459" spans="3:25">
-      <c r="C459" s="10"/>
+      <c r="C459" s="11"/>
       <c r="D459" s="5">
         <v>1</v>
       </c>
@@ -35811,8 +35806,8 @@
       <c r="S459" s="9">
         <v>0</v>
       </c>
-      <c r="T459" s="9">
-        <v>1</v>
+      <c r="T459" s="10">
+        <v>0</v>
       </c>
       <c r="U459" s="9">
         <v>0</v>
@@ -35825,11 +35820,11 @@
       </c>
       <c r="Y459" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="460" spans="3:25">
-      <c r="C460" s="10"/>
+      <c r="C460" s="11"/>
       <c r="D460" s="5">
         <v>1</v>
       </c>
@@ -35873,8 +35868,8 @@
       <c r="S460" s="9">
         <v>0</v>
       </c>
-      <c r="T460" s="9">
-        <v>1</v>
+      <c r="T460" s="10">
+        <v>0</v>
       </c>
       <c r="U460" s="9">
         <v>0</v>
@@ -35887,11 +35882,11 @@
       </c>
       <c r="Y460" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="461" spans="3:25">
-      <c r="C461" s="10"/>
+      <c r="C461" s="11"/>
       <c r="D461" s="5">
         <v>1</v>
       </c>
@@ -35935,8 +35930,8 @@
       <c r="S461" s="9">
         <v>0</v>
       </c>
-      <c r="T461" s="9">
-        <v>1</v>
+      <c r="T461" s="10">
+        <v>0</v>
       </c>
       <c r="U461" s="9">
         <v>0</v>
@@ -35949,11 +35944,11 @@
       </c>
       <c r="Y461" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="462" spans="3:25">
-      <c r="C462" s="10"/>
+      <c r="C462" s="11"/>
       <c r="D462" s="5">
         <v>1</v>
       </c>
@@ -35997,8 +35992,8 @@
       <c r="S462" s="9">
         <v>0</v>
       </c>
-      <c r="T462" s="9">
-        <v>1</v>
+      <c r="T462" s="10">
+        <v>0</v>
       </c>
       <c r="U462" s="9">
         <v>0</v>
@@ -36011,11 +36006,11 @@
       </c>
       <c r="Y462" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="463" spans="3:25">
-      <c r="C463" s="10"/>
+      <c r="C463" s="11"/>
       <c r="D463" s="5">
         <v>1</v>
       </c>
@@ -36059,8 +36054,8 @@
       <c r="S463" s="9">
         <v>0</v>
       </c>
-      <c r="T463" s="9">
-        <v>1</v>
+      <c r="T463" s="10">
+        <v>0</v>
       </c>
       <c r="U463" s="9">
         <v>0</v>
@@ -36073,11 +36068,11 @@
       </c>
       <c r="Y463" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C8</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="464" spans="3:25">
-      <c r="C464" s="10"/>
+      <c r="C464" s="11"/>
       <c r="D464" s="5">
         <v>1</v>
       </c>
@@ -36121,8 +36116,8 @@
       <c r="S464" s="9">
         <v>0</v>
       </c>
-      <c r="T464" s="9">
-        <v>1</v>
+      <c r="T464" s="10">
+        <v>0</v>
       </c>
       <c r="U464" s="9">
         <v>0</v>
@@ -36135,7 +36130,7 @@
       </c>
       <c r="Y464" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>C8</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="465" spans="3:25">
@@ -36161,8 +36156,8 @@
       <c r="Y465" s="9"/>
     </row>
     <row r="466" spans="3:25">
-      <c r="C466" s="10" t="s">
-        <v>146</v>
+      <c r="C466" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="D466" s="5">
         <v>1</v>
@@ -36225,7 +36220,7 @@
       </c>
     </row>
     <row r="467" spans="3:25">
-      <c r="C467" s="10"/>
+      <c r="C467" s="11"/>
       <c r="D467" s="5">
         <v>1</v>
       </c>
@@ -36287,7 +36282,7 @@
       </c>
     </row>
     <row r="468" spans="3:25">
-      <c r="C468" s="10"/>
+      <c r="C468" s="11"/>
       <c r="D468" s="5">
         <v>1</v>
       </c>
@@ -36349,7 +36344,7 @@
       </c>
     </row>
     <row r="469" spans="3:25">
-      <c r="C469" s="10"/>
+      <c r="C469" s="11"/>
       <c r="D469" s="5">
         <v>1</v>
       </c>
@@ -36411,7 +36406,7 @@
       </c>
     </row>
     <row r="470" spans="3:25">
-      <c r="C470" s="10"/>
+      <c r="C470" s="11"/>
       <c r="D470" s="5">
         <v>1</v>
       </c>
@@ -36473,7 +36468,7 @@
       </c>
     </row>
     <row r="471" spans="3:25">
-      <c r="C471" s="10"/>
+      <c r="C471" s="11"/>
       <c r="D471" s="5">
         <v>1</v>
       </c>
@@ -36535,7 +36530,7 @@
       </c>
     </row>
     <row r="472" spans="3:25">
-      <c r="C472" s="10"/>
+      <c r="C472" s="11"/>
       <c r="D472" s="5">
         <v>1</v>
       </c>
@@ -36597,7 +36592,7 @@
       </c>
     </row>
     <row r="473" spans="3:25">
-      <c r="C473" s="10"/>
+      <c r="C473" s="11"/>
       <c r="D473" s="5">
         <v>1</v>
       </c>
@@ -36659,7 +36654,7 @@
       </c>
     </row>
     <row r="474" spans="3:25">
-      <c r="C474" s="10"/>
+      <c r="C474" s="11"/>
       <c r="D474" s="5">
         <v>1</v>
       </c>
@@ -36721,7 +36716,7 @@
       </c>
     </row>
     <row r="475" spans="3:25">
-      <c r="C475" s="10"/>
+      <c r="C475" s="11"/>
       <c r="D475" s="5">
         <v>1</v>
       </c>
@@ -36783,7 +36778,7 @@
       </c>
     </row>
     <row r="476" spans="3:25">
-      <c r="C476" s="10"/>
+      <c r="C476" s="11"/>
       <c r="D476" s="5">
         <v>1</v>
       </c>
@@ -36845,7 +36840,7 @@
       </c>
     </row>
     <row r="477" spans="3:25">
-      <c r="C477" s="10"/>
+      <c r="C477" s="11"/>
       <c r="D477" s="5">
         <v>1</v>
       </c>
@@ -36907,7 +36902,7 @@
       </c>
     </row>
     <row r="478" spans="3:25">
-      <c r="C478" s="10"/>
+      <c r="C478" s="11"/>
       <c r="D478" s="5">
         <v>1</v>
       </c>
@@ -36969,7 +36964,7 @@
       </c>
     </row>
     <row r="479" spans="3:25">
-      <c r="C479" s="10"/>
+      <c r="C479" s="11"/>
       <c r="D479" s="5">
         <v>1</v>
       </c>
@@ -37031,7 +37026,7 @@
       </c>
     </row>
     <row r="480" spans="3:25">
-      <c r="C480" s="10"/>
+      <c r="C480" s="11"/>
       <c r="D480" s="5">
         <v>1</v>
       </c>
@@ -37093,7 +37088,7 @@
       </c>
     </row>
     <row r="481" spans="3:25">
-      <c r="C481" s="10"/>
+      <c r="C481" s="11"/>
       <c r="D481" s="5">
         <v>1</v>
       </c>
@@ -37155,7 +37150,7 @@
       </c>
     </row>
     <row r="482" spans="3:25">
-      <c r="C482" s="10"/>
+      <c r="C482" s="11"/>
       <c r="D482" s="5">
         <v>1</v>
       </c>
@@ -37217,7 +37212,7 @@
       </c>
     </row>
     <row r="483" spans="3:25">
-      <c r="C483" s="10"/>
+      <c r="C483" s="11"/>
       <c r="D483" s="5">
         <v>1</v>
       </c>
@@ -37279,7 +37274,7 @@
       </c>
     </row>
     <row r="484" spans="3:25">
-      <c r="C484" s="10"/>
+      <c r="C484" s="11"/>
       <c r="D484" s="5">
         <v>1</v>
       </c>
@@ -37341,7 +37336,7 @@
       </c>
     </row>
     <row r="485" spans="3:25">
-      <c r="C485" s="10"/>
+      <c r="C485" s="11"/>
       <c r="D485" s="5">
         <v>1</v>
       </c>
@@ -37403,7 +37398,7 @@
       </c>
     </row>
     <row r="486" spans="3:25">
-      <c r="C486" s="10"/>
+      <c r="C486" s="11"/>
       <c r="D486" s="5">
         <v>1</v>
       </c>
@@ -37465,7 +37460,7 @@
       </c>
     </row>
     <row r="487" spans="3:25">
-      <c r="C487" s="10"/>
+      <c r="C487" s="11"/>
       <c r="D487" s="5">
         <v>1</v>
       </c>
@@ -37527,7 +37522,7 @@
       </c>
     </row>
     <row r="488" spans="3:25">
-      <c r="C488" s="10"/>
+      <c r="C488" s="11"/>
       <c r="D488" s="5">
         <v>1</v>
       </c>
@@ -37589,7 +37584,7 @@
       </c>
     </row>
     <row r="489" spans="3:25">
-      <c r="C489" s="10"/>
+      <c r="C489" s="11"/>
       <c r="D489" s="5">
         <v>1</v>
       </c>
@@ -37651,7 +37646,7 @@
       </c>
     </row>
     <row r="490" spans="3:25">
-      <c r="C490" s="10"/>
+      <c r="C490" s="11"/>
       <c r="D490" s="5">
         <v>1</v>
       </c>
@@ -37713,7 +37708,7 @@
       </c>
     </row>
     <row r="491" spans="3:25">
-      <c r="C491" s="10"/>
+      <c r="C491" s="11"/>
       <c r="D491" s="5">
         <v>1</v>
       </c>
@@ -37775,7 +37770,7 @@
       </c>
     </row>
     <row r="492" spans="3:25">
-      <c r="C492" s="10"/>
+      <c r="C492" s="11"/>
       <c r="D492" s="5">
         <v>1</v>
       </c>
@@ -37837,7 +37832,7 @@
       </c>
     </row>
     <row r="493" spans="3:25">
-      <c r="C493" s="10"/>
+      <c r="C493" s="11"/>
       <c r="D493" s="5">
         <v>1</v>
       </c>
@@ -37899,7 +37894,7 @@
       </c>
     </row>
     <row r="494" spans="3:25">
-      <c r="C494" s="10"/>
+      <c r="C494" s="11"/>
       <c r="D494" s="5">
         <v>1</v>
       </c>
@@ -37961,7 +37956,7 @@
       </c>
     </row>
     <row r="495" spans="3:25">
-      <c r="C495" s="10"/>
+      <c r="C495" s="11"/>
       <c r="D495" s="5">
         <v>1</v>
       </c>
@@ -38023,7 +38018,7 @@
       </c>
     </row>
     <row r="496" spans="3:25">
-      <c r="C496" s="10"/>
+      <c r="C496" s="11"/>
       <c r="D496" s="5">
         <v>1</v>
       </c>
@@ -38085,7 +38080,7 @@
       </c>
     </row>
     <row r="497" spans="3:25">
-      <c r="C497" s="10"/>
+      <c r="C497" s="11"/>
       <c r="D497" s="5">
         <v>1</v>
       </c>
@@ -38169,8 +38164,8 @@
       <c r="Y498" s="9"/>
     </row>
     <row r="499" spans="3:25">
-      <c r="C499" s="10" t="s">
-        <v>145</v>
+      <c r="C499" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D499" s="5">
         <v>1</v>
@@ -38233,7 +38228,7 @@
       </c>
     </row>
     <row r="500" spans="3:25">
-      <c r="C500" s="10"/>
+      <c r="C500" s="11"/>
       <c r="D500" s="5">
         <v>1</v>
       </c>
@@ -38295,7 +38290,7 @@
       </c>
     </row>
     <row r="501" spans="3:25">
-      <c r="C501" s="10"/>
+      <c r="C501" s="11"/>
       <c r="D501" s="5">
         <v>1</v>
       </c>
@@ -38357,7 +38352,7 @@
       </c>
     </row>
     <row r="502" spans="3:25">
-      <c r="C502" s="10"/>
+      <c r="C502" s="11"/>
       <c r="D502" s="5">
         <v>1</v>
       </c>
@@ -38419,7 +38414,7 @@
       </c>
     </row>
     <row r="503" spans="3:25">
-      <c r="C503" s="10"/>
+      <c r="C503" s="11"/>
       <c r="D503" s="5">
         <v>1</v>
       </c>
@@ -38481,7 +38476,7 @@
       </c>
     </row>
     <row r="504" spans="3:25">
-      <c r="C504" s="10"/>
+      <c r="C504" s="11"/>
       <c r="D504" s="5">
         <v>1</v>
       </c>
@@ -38543,7 +38538,7 @@
       </c>
     </row>
     <row r="505" spans="3:25">
-      <c r="C505" s="10"/>
+      <c r="C505" s="11"/>
       <c r="D505" s="5">
         <v>1</v>
       </c>
@@ -38605,7 +38600,7 @@
       </c>
     </row>
     <row r="506" spans="3:25">
-      <c r="C506" s="10"/>
+      <c r="C506" s="11"/>
       <c r="D506" s="5">
         <v>1</v>
       </c>
@@ -38667,7 +38662,7 @@
       </c>
     </row>
     <row r="507" spans="3:25">
-      <c r="C507" s="10"/>
+      <c r="C507" s="11"/>
       <c r="D507" s="5">
         <v>1</v>
       </c>
@@ -38729,7 +38724,7 @@
       </c>
     </row>
     <row r="508" spans="3:25">
-      <c r="C508" s="10"/>
+      <c r="C508" s="11"/>
       <c r="D508" s="5">
         <v>1</v>
       </c>
@@ -38791,7 +38786,7 @@
       </c>
     </row>
     <row r="509" spans="3:25">
-      <c r="C509" s="10"/>
+      <c r="C509" s="11"/>
       <c r="D509" s="5">
         <v>1</v>
       </c>
@@ -38853,7 +38848,7 @@
       </c>
     </row>
     <row r="510" spans="3:25">
-      <c r="C510" s="10"/>
+      <c r="C510" s="11"/>
       <c r="D510" s="5">
         <v>1</v>
       </c>
@@ -38915,7 +38910,7 @@
       </c>
     </row>
     <row r="511" spans="3:25">
-      <c r="C511" s="10"/>
+      <c r="C511" s="11"/>
       <c r="D511" s="5">
         <v>1</v>
       </c>
@@ -38977,7 +38972,7 @@
       </c>
     </row>
     <row r="512" spans="3:25">
-      <c r="C512" s="10"/>
+      <c r="C512" s="11"/>
       <c r="D512" s="5">
         <v>1</v>
       </c>
@@ -39039,7 +39034,7 @@
       </c>
     </row>
     <row r="513" spans="3:25">
-      <c r="C513" s="10"/>
+      <c r="C513" s="11"/>
       <c r="D513" s="5">
         <v>1</v>
       </c>
@@ -39101,7 +39096,7 @@
       </c>
     </row>
     <row r="514" spans="3:25">
-      <c r="C514" s="10"/>
+      <c r="C514" s="11"/>
       <c r="D514" s="5">
         <v>1</v>
       </c>
@@ -39163,7 +39158,7 @@
       </c>
     </row>
     <row r="515" spans="3:25">
-      <c r="C515" s="10"/>
+      <c r="C515" s="11"/>
       <c r="D515" s="5">
         <v>1</v>
       </c>
@@ -39225,7 +39220,7 @@
       </c>
     </row>
     <row r="516" spans="3:25">
-      <c r="C516" s="10"/>
+      <c r="C516" s="11"/>
       <c r="D516" s="5">
         <v>1</v>
       </c>
@@ -39287,7 +39282,7 @@
       </c>
     </row>
     <row r="517" spans="3:25">
-      <c r="C517" s="10"/>
+      <c r="C517" s="11"/>
       <c r="D517" s="5">
         <v>1</v>
       </c>
@@ -39349,7 +39344,7 @@
       </c>
     </row>
     <row r="518" spans="3:25">
-      <c r="C518" s="10"/>
+      <c r="C518" s="11"/>
       <c r="D518" s="5">
         <v>1</v>
       </c>
@@ -39411,7 +39406,7 @@
       </c>
     </row>
     <row r="519" spans="3:25">
-      <c r="C519" s="10"/>
+      <c r="C519" s="11"/>
       <c r="D519" s="5">
         <v>1</v>
       </c>
@@ -39473,7 +39468,7 @@
       </c>
     </row>
     <row r="520" spans="3:25">
-      <c r="C520" s="10"/>
+      <c r="C520" s="11"/>
       <c r="D520" s="5">
         <v>1</v>
       </c>
@@ -39535,7 +39530,7 @@
       </c>
     </row>
     <row r="521" spans="3:25">
-      <c r="C521" s="10"/>
+      <c r="C521" s="11"/>
       <c r="D521" s="5">
         <v>1</v>
       </c>
@@ -39597,7 +39592,7 @@
       </c>
     </row>
     <row r="522" spans="3:25">
-      <c r="C522" s="10"/>
+      <c r="C522" s="11"/>
       <c r="D522" s="5">
         <v>1</v>
       </c>
@@ -39659,7 +39654,7 @@
       </c>
     </row>
     <row r="523" spans="3:25">
-      <c r="C523" s="10"/>
+      <c r="C523" s="11"/>
       <c r="D523" s="5">
         <v>1</v>
       </c>
@@ -39721,7 +39716,7 @@
       </c>
     </row>
     <row r="524" spans="3:25">
-      <c r="C524" s="10"/>
+      <c r="C524" s="11"/>
       <c r="D524" s="5">
         <v>1</v>
       </c>
@@ -39783,7 +39778,7 @@
       </c>
     </row>
     <row r="525" spans="3:25">
-      <c r="C525" s="10"/>
+      <c r="C525" s="11"/>
       <c r="D525" s="5">
         <v>1</v>
       </c>
@@ -39845,7 +39840,7 @@
       </c>
     </row>
     <row r="526" spans="3:25">
-      <c r="C526" s="10"/>
+      <c r="C526" s="11"/>
       <c r="D526" s="5">
         <v>1</v>
       </c>
@@ -39907,7 +39902,7 @@
       </c>
     </row>
     <row r="527" spans="3:25">
-      <c r="C527" s="10"/>
+      <c r="C527" s="11"/>
       <c r="D527" s="5">
         <v>1</v>
       </c>
@@ -39969,7 +39964,7 @@
       </c>
     </row>
     <row r="528" spans="3:25">
-      <c r="C528" s="10"/>
+      <c r="C528" s="11"/>
       <c r="D528" s="5">
         <v>1</v>
       </c>
@@ -40031,7 +40026,7 @@
       </c>
     </row>
     <row r="529" spans="3:25">
-      <c r="C529" s="10"/>
+      <c r="C529" s="11"/>
       <c r="D529" s="5">
         <v>1</v>
       </c>
@@ -40093,7 +40088,7 @@
       </c>
     </row>
     <row r="530" spans="3:25">
-      <c r="C530" s="10"/>
+      <c r="C530" s="11"/>
       <c r="D530" s="5">
         <v>1</v>
       </c>
@@ -40158,28 +40153,28 @@
       <c r="D531" s="5"/>
     </row>
     <row r="532" spans="3:25">
-      <c r="D532" s="10"/>
-      <c r="E532" s="10"/>
-      <c r="F532" s="10"/>
-      <c r="G532" s="10"/>
-      <c r="H532" s="10"/>
-      <c r="I532" s="10"/>
-      <c r="J532" s="10"/>
-      <c r="K532" s="10"/>
-      <c r="L532" s="10"/>
-      <c r="M532" s="10"/>
-      <c r="N532" s="10"/>
-      <c r="O532" s="10"/>
-      <c r="P532" s="10"/>
-      <c r="Q532" s="10"/>
-      <c r="R532" s="10"/>
-      <c r="S532" s="10"/>
-      <c r="T532" s="10"/>
-      <c r="U532" s="10"/>
-      <c r="V532" s="10"/>
-      <c r="W532" s="10"/>
-      <c r="X532" s="10"/>
-      <c r="Y532" s="10"/>
+      <c r="D532" s="11"/>
+      <c r="E532" s="11"/>
+      <c r="F532" s="11"/>
+      <c r="G532" s="11"/>
+      <c r="H532" s="11"/>
+      <c r="I532" s="11"/>
+      <c r="J532" s="11"/>
+      <c r="K532" s="11"/>
+      <c r="L532" s="11"/>
+      <c r="M532" s="11"/>
+      <c r="N532" s="11"/>
+      <c r="O532" s="11"/>
+      <c r="P532" s="11"/>
+      <c r="Q532" s="11"/>
+      <c r="R532" s="11"/>
+      <c r="S532" s="11"/>
+      <c r="T532" s="11"/>
+      <c r="U532" s="11"/>
+      <c r="V532" s="11"/>
+      <c r="W532" s="11"/>
+      <c r="X532" s="11"/>
+      <c r="Y532" s="11"/>
     </row>
     <row r="533" spans="3:25">
       <c r="D533" s="5"/>
@@ -41809,6 +41804,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C499:C530"/>
+    <mergeCell ref="C466:C497"/>
+    <mergeCell ref="C433:C464"/>
     <mergeCell ref="C400:C431"/>
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="P2:Y2"/>
@@ -41825,9 +41823,6 @@
     <mergeCell ref="C301:C332"/>
     <mergeCell ref="C334:C365"/>
     <mergeCell ref="C367:C398"/>
-    <mergeCell ref="C499:C530"/>
-    <mergeCell ref="C466:C497"/>
-    <mergeCell ref="C433:C464"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
